--- a/Bases_de_Dados_(2022-2024)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Peru Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,24 @@
     <t>['8', '25', '90+3']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['37', '60']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['23', '72', '90+6']</t>
+  </si>
+  <si>
+    <t>['63', '78']</t>
+  </si>
+  <si>
+    <t>['54', '90+14']</t>
+  </si>
+  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -941,6 +959,15 @@
   </si>
   <si>
     <t>['43']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['48', '78']</t>
+  </si>
+  <si>
+    <t>['31', '54']</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1824,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT3">
         <v>0.9</v>
@@ -2015,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT4">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2206,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT5">
         <v>0.9</v>
@@ -2397,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT6">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2588,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT7">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2692,7 +2719,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2779,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT8">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2883,7 +2910,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2970,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3164,7 +3191,7 @@
         <v>1.3</v>
       </c>
       <c r="AT10">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3456,7 +3483,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3647,7 +3674,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3838,7 +3865,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4793,7 +4820,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -5071,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT20">
         <v>0.9</v>
@@ -5262,10 +5289,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT21">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU21">
         <v>1.69</v>
@@ -5366,7 +5393,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5644,10 +5671,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT23">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU23">
         <v>2.17</v>
@@ -5835,10 +5862,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT24">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5939,7 +5966,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6026,10 +6053,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT25">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU25">
         <v>2.25</v>
@@ -6130,7 +6157,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6220,7 +6247,7 @@
         <v>2.7</v>
       </c>
       <c r="AT26">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6411,7 +6438,7 @@
         <v>1.3</v>
       </c>
       <c r="AT27">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6599,10 +6626,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT28">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6703,7 +6730,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6981,7 +7008,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT30">
         <v>0.45</v>
@@ -7658,7 +7685,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7849,7 +7876,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7936,10 +7963,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT35">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU35">
         <v>1.81</v>
@@ -8130,7 +8157,7 @@
         <v>2</v>
       </c>
       <c r="AT36">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU36">
         <v>2.39</v>
@@ -8318,10 +8345,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT37">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU37">
         <v>0.8100000000000001</v>
@@ -8509,10 +8536,10 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT38">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU38">
         <v>1.84</v>
@@ -8613,7 +8640,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8700,10 +8727,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT39">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU39">
         <v>1.54</v>
@@ -8891,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT40">
         <v>0.9</v>
@@ -8995,7 +9022,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9186,7 +9213,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q42">
         <v>11</v>
@@ -9276,7 +9303,7 @@
         <v>2.7</v>
       </c>
       <c r="AT42">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -10037,7 +10064,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT46">
         <v>1.4</v>
@@ -10332,7 +10359,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10419,7 +10446,7 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT48">
         <v>1.64</v>
@@ -10523,7 +10550,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10714,7 +10741,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10801,7 +10828,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT50">
         <v>1.55</v>
@@ -10995,7 +11022,7 @@
         <v>1.64</v>
       </c>
       <c r="AT51">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU51">
         <v>1.72</v>
@@ -11183,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT52">
         <v>0.9</v>
@@ -11287,7 +11314,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11377,7 +11404,7 @@
         <v>1.82</v>
       </c>
       <c r="AT53">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU53">
         <v>0.4</v>
@@ -11478,7 +11505,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11565,10 +11592,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT54">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU54">
         <v>1.8</v>
@@ -11756,10 +11783,10 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT55">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU55">
         <v>1.99</v>
@@ -11947,7 +11974,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT56">
         <v>0.45</v>
@@ -12051,7 +12078,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12141,7 +12168,7 @@
         <v>2</v>
       </c>
       <c r="AT57">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU57">
         <v>2.85</v>
@@ -12332,7 +12359,7 @@
         <v>2.7</v>
       </c>
       <c r="AT58">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU58">
         <v>1.94</v>
@@ -12520,7 +12547,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT59">
         <v>0.9</v>
@@ -12711,10 +12738,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT60">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU60">
         <v>1.12</v>
@@ -12815,7 +12842,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -12902,7 +12929,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT61">
         <v>1.2</v>
@@ -13096,7 +13123,7 @@
         <v>1.3</v>
       </c>
       <c r="AT62">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU62">
         <v>1.55</v>
@@ -13197,7 +13224,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13284,10 +13311,10 @@
         <v>1.5</v>
       </c>
       <c r="AS63">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT63">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU63">
         <v>1.33</v>
@@ -13579,7 +13606,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13666,10 +13693,10 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT65">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU65">
         <v>1.6</v>
@@ -13770,7 +13797,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13857,10 +13884,10 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT66">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU66">
         <v>1.93</v>
@@ -14048,7 +14075,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT67">
         <v>0.8</v>
@@ -14621,7 +14648,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT70">
         <v>1.27</v>
@@ -14725,7 +14752,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15107,7 +15134,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15197,7 +15224,7 @@
         <v>1.36</v>
       </c>
       <c r="AT73">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU73">
         <v>1.45</v>
@@ -15576,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT75">
         <v>1</v>
@@ -15680,7 +15707,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15961,7 +15988,7 @@
         <v>2.7</v>
       </c>
       <c r="AT77">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU77">
         <v>1.75</v>
@@ -16062,7 +16089,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16149,7 +16176,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT78">
         <v>1.4</v>
@@ -16340,10 +16367,10 @@
         <v>0.67</v>
       </c>
       <c r="AS79">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT79">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU79">
         <v>1.44</v>
@@ -16534,7 +16561,7 @@
         <v>1.82</v>
       </c>
       <c r="AT80">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU80">
         <v>0.95</v>
@@ -16635,7 +16662,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16725,7 +16752,7 @@
         <v>1.64</v>
       </c>
       <c r="AT81">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU81">
         <v>1.67</v>
@@ -16826,7 +16853,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -17017,7 +17044,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17104,7 +17131,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT83">
         <v>0.45</v>
@@ -17208,7 +17235,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q84">
         <v>10</v>
@@ -17298,7 +17325,7 @@
         <v>0.73</v>
       </c>
       <c r="AT84">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU84">
         <v>1.16</v>
@@ -17486,7 +17513,7 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT85">
         <v>1.55</v>
@@ -17590,7 +17617,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17677,7 +17704,7 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17972,7 +17999,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -18059,7 +18086,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT88">
         <v>0.91</v>
@@ -18253,7 +18280,7 @@
         <v>2.82</v>
       </c>
       <c r="AT89">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU89">
         <v>1.6</v>
@@ -18354,7 +18381,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q90">
         <v>19</v>
@@ -18441,7 +18468,7 @@
         <v>0.33</v>
       </c>
       <c r="AS90">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT90">
         <v>0.55</v>
@@ -18545,7 +18572,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18736,7 +18763,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18927,7 +18954,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19208,7 +19235,7 @@
         <v>1.5</v>
       </c>
       <c r="AT94">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU94">
         <v>1.35</v>
@@ -19396,7 +19423,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT95">
         <v>0.45</v>
@@ -19500,7 +19527,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19590,7 +19617,7 @@
         <v>0.73</v>
       </c>
       <c r="AT96">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU96">
         <v>1.42</v>
@@ -19691,7 +19718,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19781,7 +19808,7 @@
         <v>2</v>
       </c>
       <c r="AT97">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU97">
         <v>2.28</v>
@@ -19972,7 +19999,7 @@
         <v>1.82</v>
       </c>
       <c r="AT98">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU98">
         <v>1.17</v>
@@ -20073,7 +20100,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20163,7 +20190,7 @@
         <v>1.36</v>
       </c>
       <c r="AT99">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU99">
         <v>1.57</v>
@@ -20455,7 +20482,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20646,7 +20673,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20733,7 +20760,7 @@
         <v>1.75</v>
       </c>
       <c r="AS102">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT102">
         <v>1.4</v>
@@ -20924,7 +20951,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT103">
         <v>1.64</v>
@@ -21115,7 +21142,7 @@
         <v>1.33</v>
       </c>
       <c r="AS104">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT104">
         <v>0.91</v>
@@ -21306,7 +21333,7 @@
         <v>1.33</v>
       </c>
       <c r="AS105">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT105">
         <v>0.8</v>
@@ -21410,7 +21437,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21497,7 +21524,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT106">
         <v>1.27</v>
@@ -21688,7 +21715,7 @@
         <v>1.17</v>
       </c>
       <c r="AS107">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT107">
         <v>1.2</v>
@@ -21882,7 +21909,7 @@
         <v>2.09</v>
       </c>
       <c r="AT108">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU108">
         <v>1.22</v>
@@ -21983,7 +22010,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22073,7 +22100,7 @@
         <v>1.6</v>
       </c>
       <c r="AT109">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU109">
         <v>1.69</v>
@@ -22365,7 +22392,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22646,7 +22673,7 @@
         <v>1.5</v>
       </c>
       <c r="AT112">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU112">
         <v>1.43</v>
@@ -22837,7 +22864,7 @@
         <v>0.73</v>
       </c>
       <c r="AT113">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU113">
         <v>1.42</v>
@@ -23219,7 +23246,7 @@
         <v>1.64</v>
       </c>
       <c r="AT115">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU115">
         <v>1.53</v>
@@ -23702,7 +23729,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23789,7 +23816,7 @@
         <v>0.75</v>
       </c>
       <c r="AS118">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT118">
         <v>1.64</v>
@@ -23980,7 +24007,7 @@
         <v>0.25</v>
       </c>
       <c r="AS119">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT119">
         <v>1</v>
@@ -24174,7 +24201,7 @@
         <v>2.82</v>
       </c>
       <c r="AT120">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU120">
         <v>1.64</v>
@@ -24275,7 +24302,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24466,7 +24493,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24556,7 +24583,7 @@
         <v>1.82</v>
       </c>
       <c r="AT122">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU122">
         <v>1.37</v>
@@ -25320,7 +25347,7 @@
         <v>1.6</v>
       </c>
       <c r="AT126">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU126">
         <v>1.83</v>
@@ -25421,7 +25448,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25803,7 +25830,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25994,7 +26021,7 @@
         <v>144</v>
       </c>
       <c r="P130" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26185,7 +26212,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -27140,7 +27167,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27230,7 +27257,7 @@
         <v>2.09</v>
       </c>
       <c r="AT136">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU136">
         <v>1.74</v>
@@ -27418,7 +27445,7 @@
         <v>1</v>
       </c>
       <c r="AS137">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT137">
         <v>0.91</v>
@@ -27612,7 +27639,7 @@
         <v>1.7</v>
       </c>
       <c r="AT138">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU138">
         <v>1.79</v>
@@ -27713,7 +27740,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27800,10 +27827,10 @@
         <v>0.71</v>
       </c>
       <c r="AS139">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT139">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU139">
         <v>1.96</v>
@@ -27904,7 +27931,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27991,7 +28018,7 @@
         <v>1.14</v>
       </c>
       <c r="AS140">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT140">
         <v>0.8</v>
@@ -28182,7 +28209,7 @@
         <v>0.86</v>
       </c>
       <c r="AS141">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT141">
         <v>0.9</v>
@@ -28286,7 +28313,7 @@
         <v>134</v>
       </c>
       <c r="P142" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28477,7 +28504,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28564,7 +28591,7 @@
         <v>0.71</v>
       </c>
       <c r="AS143">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT143">
         <v>0.55</v>
@@ -28758,7 +28785,7 @@
         <v>1.6</v>
       </c>
       <c r="AT144">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU144">
         <v>1.78</v>
@@ -29241,7 +29268,7 @@
         <v>196</v>
       </c>
       <c r="P147" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29623,7 +29650,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29713,7 +29740,7 @@
         <v>1.36</v>
       </c>
       <c r="AT149">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU149">
         <v>1.6</v>
@@ -29901,7 +29928,7 @@
         <v>1.43</v>
       </c>
       <c r="AS150">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT150">
         <v>1.27</v>
@@ -30005,7 +30032,7 @@
         <v>199</v>
       </c>
       <c r="P151" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30196,7 +30223,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30387,7 +30414,7 @@
         <v>201</v>
       </c>
       <c r="P153" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q153">
         <v>11</v>
@@ -30477,7 +30504,7 @@
         <v>2.82</v>
       </c>
       <c r="AT153">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU153">
         <v>1.58</v>
@@ -30578,7 +30605,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -30769,7 +30796,7 @@
         <v>203</v>
       </c>
       <c r="P155" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30856,7 +30883,7 @@
         <v>0.75</v>
       </c>
       <c r="AS155">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT155">
         <v>0.9</v>
@@ -30960,7 +30987,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31050,7 +31077,7 @@
         <v>1.7</v>
       </c>
       <c r="AT156">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU156">
         <v>1.91</v>
@@ -31238,7 +31265,7 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT157">
         <v>0.8</v>
@@ -31432,7 +31459,7 @@
         <v>1.3</v>
       </c>
       <c r="AT158">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU158">
         <v>1.59</v>
@@ -31623,7 +31650,7 @@
         <v>1.6</v>
       </c>
       <c r="AT159">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU159">
         <v>2.01</v>
@@ -31724,7 +31751,7 @@
         <v>208</v>
       </c>
       <c r="P160" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q160">
         <v>15</v>
@@ -31811,10 +31838,10 @@
         <v>0.38</v>
       </c>
       <c r="AS160">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT160">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU160">
         <v>1.99</v>
@@ -32002,10 +32029,10 @@
         <v>0.13</v>
       </c>
       <c r="AS161">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT161">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU161">
         <v>1.88</v>
@@ -32193,7 +32220,7 @@
         <v>1.38</v>
       </c>
       <c r="AS162">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT162">
         <v>1.2</v>
@@ -32384,7 +32411,7 @@
         <v>0.63</v>
       </c>
       <c r="AS163">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT163">
         <v>0.55</v>
@@ -32679,7 +32706,7 @@
         <v>211</v>
       </c>
       <c r="P165" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32870,7 +32897,7 @@
         <v>84</v>
       </c>
       <c r="P166" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q166">
         <v>2</v>
@@ -33061,7 +33088,7 @@
         <v>212</v>
       </c>
       <c r="P167" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33151,7 +33178,7 @@
         <v>2.09</v>
       </c>
       <c r="AT167">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU167">
         <v>1.69</v>
@@ -33252,7 +33279,7 @@
         <v>213</v>
       </c>
       <c r="P168" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33342,7 +33369,7 @@
         <v>1.5</v>
       </c>
       <c r="AT168">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU168">
         <v>1.61</v>
@@ -33443,7 +33470,7 @@
         <v>214</v>
       </c>
       <c r="P169" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -34207,7 +34234,7 @@
         <v>84</v>
       </c>
       <c r="P173" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q173">
         <v>5</v>
@@ -34488,7 +34515,7 @@
         <v>2.09</v>
       </c>
       <c r="AT174">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU174">
         <v>1.68</v>
@@ -34589,7 +34616,7 @@
         <v>92</v>
       </c>
       <c r="P175" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q175">
         <v>4</v>
@@ -35162,7 +35189,7 @@
         <v>84</v>
       </c>
       <c r="P178" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q178">
         <v>1</v>
@@ -35353,7 +35380,7 @@
         <v>220</v>
       </c>
       <c r="P179" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -35544,7 +35571,7 @@
         <v>221</v>
       </c>
       <c r="P180" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36013,7 +36040,7 @@
         <v>1.22</v>
       </c>
       <c r="AS182">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT182">
         <v>1.2</v>
@@ -36207,7 +36234,7 @@
         <v>1.7</v>
       </c>
       <c r="AT183">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU183">
         <v>1.94</v>
@@ -36308,7 +36335,7 @@
         <v>224</v>
       </c>
       <c r="P184" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36395,7 +36422,7 @@
         <v>0.89</v>
       </c>
       <c r="AS184">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT184">
         <v>0.9</v>
@@ -36589,7 +36616,7 @@
         <v>1.3</v>
       </c>
       <c r="AT185">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU185">
         <v>1.55</v>
@@ -36777,10 +36804,10 @@
         <v>0.44</v>
       </c>
       <c r="AS186">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT186">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU186">
         <v>1.61</v>
@@ -36881,7 +36908,7 @@
         <v>84</v>
       </c>
       <c r="P187" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -36968,10 +36995,10 @@
         <v>1.33</v>
       </c>
       <c r="AS187">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT187">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU187">
         <v>1.87</v>
@@ -37072,7 +37099,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37159,7 +37186,7 @@
         <v>0.67</v>
       </c>
       <c r="AS188">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT188">
         <v>0.9</v>
@@ -37350,10 +37377,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS189">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT189">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU189">
         <v>1.87</v>
@@ -37541,10 +37568,10 @@
         <v>0.11</v>
       </c>
       <c r="AS190">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT190">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU190">
         <v>1.43</v>
@@ -37836,7 +37863,7 @@
         <v>228</v>
       </c>
       <c r="P192" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -38218,7 +38245,7 @@
         <v>229</v>
       </c>
       <c r="P194" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -38600,7 +38627,7 @@
         <v>84</v>
       </c>
       <c r="P196" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q196">
         <v>7</v>
@@ -38791,7 +38818,7 @@
         <v>230</v>
       </c>
       <c r="P197" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -38982,7 +39009,7 @@
         <v>231</v>
       </c>
       <c r="P198" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q198">
         <v>6</v>
@@ -39124,6 +39151,1343 @@
       </c>
       <c r="BK198">
         <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>6703438</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45121.72916666666</v>
+      </c>
+      <c r="F199">
+        <v>4</v>
+      </c>
+      <c r="G199" t="s">
+        <v>68</v>
+      </c>
+      <c r="H199" t="s">
+        <v>78</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199" t="s">
+        <v>232</v>
+      </c>
+      <c r="P199" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q199">
+        <v>10</v>
+      </c>
+      <c r="R199">
+        <v>4</v>
+      </c>
+      <c r="S199">
+        <v>14</v>
+      </c>
+      <c r="T199">
+        <v>2.35</v>
+      </c>
+      <c r="U199">
+        <v>2.15</v>
+      </c>
+      <c r="V199">
+        <v>4.4</v>
+      </c>
+      <c r="W199">
+        <v>1.38</v>
+      </c>
+      <c r="X199">
+        <v>2.8</v>
+      </c>
+      <c r="Y199">
+        <v>2.7</v>
+      </c>
+      <c r="Z199">
+        <v>1.4</v>
+      </c>
+      <c r="AA199">
+        <v>6.25</v>
+      </c>
+      <c r="AB199">
+        <v>1.09</v>
+      </c>
+      <c r="AC199">
+        <v>1.77</v>
+      </c>
+      <c r="AD199">
+        <v>3.5</v>
+      </c>
+      <c r="AE199">
+        <v>4</v>
+      </c>
+      <c r="AF199">
+        <v>1.04</v>
+      </c>
+      <c r="AG199">
+        <v>12</v>
+      </c>
+      <c r="AH199">
+        <v>1.27</v>
+      </c>
+      <c r="AI199">
+        <v>3.45</v>
+      </c>
+      <c r="AJ199">
+        <v>1.78</v>
+      </c>
+      <c r="AK199">
+        <v>1.86</v>
+      </c>
+      <c r="AL199">
+        <v>1.78</v>
+      </c>
+      <c r="AM199">
+        <v>1.95</v>
+      </c>
+      <c r="AN199">
+        <v>1.22</v>
+      </c>
+      <c r="AO199">
+        <v>1.25</v>
+      </c>
+      <c r="AP199">
+        <v>1.9</v>
+      </c>
+      <c r="AQ199">
+        <v>1.7</v>
+      </c>
+      <c r="AR199">
+        <v>0.5</v>
+      </c>
+      <c r="AS199">
+        <v>1.64</v>
+      </c>
+      <c r="AT199">
+        <v>0.55</v>
+      </c>
+      <c r="AU199">
+        <v>1.57</v>
+      </c>
+      <c r="AV199">
+        <v>1.34</v>
+      </c>
+      <c r="AW199">
+        <v>2.91</v>
+      </c>
+      <c r="AX199">
+        <v>1.22</v>
+      </c>
+      <c r="AY199">
+        <v>11</v>
+      </c>
+      <c r="AZ199">
+        <v>5</v>
+      </c>
+      <c r="BA199">
+        <v>0</v>
+      </c>
+      <c r="BB199">
+        <v>1.25</v>
+      </c>
+      <c r="BC199">
+        <v>1.42</v>
+      </c>
+      <c r="BD199">
+        <v>1.73</v>
+      </c>
+      <c r="BE199">
+        <v>2.17</v>
+      </c>
+      <c r="BF199">
+        <v>5</v>
+      </c>
+      <c r="BG199">
+        <v>5</v>
+      </c>
+      <c r="BH199">
+        <v>12</v>
+      </c>
+      <c r="BI199">
+        <v>5</v>
+      </c>
+      <c r="BJ199">
+        <v>17</v>
+      </c>
+      <c r="BK199">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>6703439</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45121.95833333334</v>
+      </c>
+      <c r="F200">
+        <v>4</v>
+      </c>
+      <c r="G200" t="s">
+        <v>67</v>
+      </c>
+      <c r="H200" t="s">
+        <v>79</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>2</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200" t="s">
+        <v>233</v>
+      </c>
+      <c r="P200" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q200">
+        <v>6</v>
+      </c>
+      <c r="R200">
+        <v>1</v>
+      </c>
+      <c r="S200">
+        <v>7</v>
+      </c>
+      <c r="T200">
+        <v>1.64</v>
+      </c>
+      <c r="U200">
+        <v>2.6</v>
+      </c>
+      <c r="V200">
+        <v>9.4</v>
+      </c>
+      <c r="W200">
+        <v>1.25</v>
+      </c>
+      <c r="X200">
+        <v>3.5</v>
+      </c>
+      <c r="Y200">
+        <v>2.31</v>
+      </c>
+      <c r="Z200">
+        <v>1.51</v>
+      </c>
+      <c r="AA200">
+        <v>5.1</v>
+      </c>
+      <c r="AB200">
+        <v>1.12</v>
+      </c>
+      <c r="AC200">
+        <v>1.18</v>
+      </c>
+      <c r="AD200">
+        <v>5.95</v>
+      </c>
+      <c r="AE200">
+        <v>11</v>
+      </c>
+      <c r="AF200">
+        <v>1.01</v>
+      </c>
+      <c r="AG200">
+        <v>17</v>
+      </c>
+      <c r="AH200">
+        <v>1.18</v>
+      </c>
+      <c r="AI200">
+        <v>4.1</v>
+      </c>
+      <c r="AJ200">
+        <v>1.55</v>
+      </c>
+      <c r="AK200">
+        <v>2.16</v>
+      </c>
+      <c r="AL200">
+        <v>2.2</v>
+      </c>
+      <c r="AM200">
+        <v>1.64</v>
+      </c>
+      <c r="AN200">
+        <v>1.04</v>
+      </c>
+      <c r="AO200">
+        <v>1.08</v>
+      </c>
+      <c r="AP200">
+        <v>4.28</v>
+      </c>
+      <c r="AQ200">
+        <v>2.7</v>
+      </c>
+      <c r="AR200">
+        <v>0.4</v>
+      </c>
+      <c r="AS200">
+        <v>2.73</v>
+      </c>
+      <c r="AT200">
+        <v>0.36</v>
+      </c>
+      <c r="AU200">
+        <v>1.88</v>
+      </c>
+      <c r="AV200">
+        <v>1.11</v>
+      </c>
+      <c r="AW200">
+        <v>2.99</v>
+      </c>
+      <c r="AX200">
+        <v>1.08</v>
+      </c>
+      <c r="AY200">
+        <v>13</v>
+      </c>
+      <c r="AZ200">
+        <v>8.5</v>
+      </c>
+      <c r="BA200">
+        <v>1.21</v>
+      </c>
+      <c r="BB200">
+        <v>1.34</v>
+      </c>
+      <c r="BC200">
+        <v>1.67</v>
+      </c>
+      <c r="BD200">
+        <v>2.1</v>
+      </c>
+      <c r="BE200">
+        <v>2.75</v>
+      </c>
+      <c r="BF200">
+        <v>6</v>
+      </c>
+      <c r="BG200">
+        <v>0</v>
+      </c>
+      <c r="BH200">
+        <v>8</v>
+      </c>
+      <c r="BI200">
+        <v>4</v>
+      </c>
+      <c r="BJ200">
+        <v>14</v>
+      </c>
+      <c r="BK200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>6703440</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45122.625</v>
+      </c>
+      <c r="F201">
+        <v>4</v>
+      </c>
+      <c r="G201" t="s">
+        <v>69</v>
+      </c>
+      <c r="H201" t="s">
+        <v>77</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>2</v>
+      </c>
+      <c r="N201">
+        <v>3</v>
+      </c>
+      <c r="O201" t="s">
+        <v>234</v>
+      </c>
+      <c r="P201" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q201">
+        <v>6</v>
+      </c>
+      <c r="R201">
+        <v>8</v>
+      </c>
+      <c r="S201">
+        <v>14</v>
+      </c>
+      <c r="T201">
+        <v>2.1</v>
+      </c>
+      <c r="U201">
+        <v>2.4</v>
+      </c>
+      <c r="V201">
+        <v>5.5</v>
+      </c>
+      <c r="W201">
+        <v>1.3</v>
+      </c>
+      <c r="X201">
+        <v>3.2</v>
+      </c>
+      <c r="Y201">
+        <v>2.62</v>
+      </c>
+      <c r="Z201">
+        <v>1.44</v>
+      </c>
+      <c r="AA201">
+        <v>6</v>
+      </c>
+      <c r="AB201">
+        <v>1.1</v>
+      </c>
+      <c r="AC201">
+        <v>1.61</v>
+      </c>
+      <c r="AD201">
+        <v>4.1</v>
+      </c>
+      <c r="AE201">
+        <v>4.89</v>
+      </c>
+      <c r="AF201">
+        <v>1.03</v>
+      </c>
+      <c r="AG201">
+        <v>15</v>
+      </c>
+      <c r="AH201">
+        <v>1.22</v>
+      </c>
+      <c r="AI201">
+        <v>4.2</v>
+      </c>
+      <c r="AJ201">
+        <v>1.7</v>
+      </c>
+      <c r="AK201">
+        <v>2.1</v>
+      </c>
+      <c r="AL201">
+        <v>1.75</v>
+      </c>
+      <c r="AM201">
+        <v>2.03</v>
+      </c>
+      <c r="AN201">
+        <v>1.12</v>
+      </c>
+      <c r="AO201">
+        <v>1.18</v>
+      </c>
+      <c r="AP201">
+        <v>2.5</v>
+      </c>
+      <c r="AQ201">
+        <v>1.5</v>
+      </c>
+      <c r="AR201">
+        <v>0.7</v>
+      </c>
+      <c r="AS201">
+        <v>1.36</v>
+      </c>
+      <c r="AT201">
+        <v>0.91</v>
+      </c>
+      <c r="AU201">
+        <v>2</v>
+      </c>
+      <c r="AV201">
+        <v>1.4</v>
+      </c>
+      <c r="AW201">
+        <v>3.4</v>
+      </c>
+      <c r="AX201">
+        <v>1.33</v>
+      </c>
+      <c r="AY201">
+        <v>10</v>
+      </c>
+      <c r="AZ201">
+        <v>3.75</v>
+      </c>
+      <c r="BA201">
+        <v>1.15</v>
+      </c>
+      <c r="BB201">
+        <v>1.26</v>
+      </c>
+      <c r="BC201">
+        <v>1.47</v>
+      </c>
+      <c r="BD201">
+        <v>1.88</v>
+      </c>
+      <c r="BE201">
+        <v>2.32</v>
+      </c>
+      <c r="BF201">
+        <v>5</v>
+      </c>
+      <c r="BG201">
+        <v>7</v>
+      </c>
+      <c r="BH201">
+        <v>5</v>
+      </c>
+      <c r="BI201">
+        <v>4</v>
+      </c>
+      <c r="BJ201">
+        <v>10</v>
+      </c>
+      <c r="BK201">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>6703441</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45122.71875</v>
+      </c>
+      <c r="F202">
+        <v>4</v>
+      </c>
+      <c r="G202" t="s">
+        <v>70</v>
+      </c>
+      <c r="H202" t="s">
+        <v>80</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>2</v>
+      </c>
+      <c r="L202">
+        <v>3</v>
+      </c>
+      <c r="M202">
+        <v>2</v>
+      </c>
+      <c r="N202">
+        <v>5</v>
+      </c>
+      <c r="O202" t="s">
+        <v>235</v>
+      </c>
+      <c r="P202" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q202">
+        <v>4</v>
+      </c>
+      <c r="R202">
+        <v>3</v>
+      </c>
+      <c r="S202">
+        <v>7</v>
+      </c>
+      <c r="T202">
+        <v>1.58</v>
+      </c>
+      <c r="U202">
+        <v>2.9</v>
+      </c>
+      <c r="V202">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W202">
+        <v>1.17</v>
+      </c>
+      <c r="X202">
+        <v>4.5</v>
+      </c>
+      <c r="Y202">
+        <v>2</v>
+      </c>
+      <c r="Z202">
+        <v>1.73</v>
+      </c>
+      <c r="AA202">
+        <v>4.5</v>
+      </c>
+      <c r="AB202">
+        <v>1.17</v>
+      </c>
+      <c r="AC202">
+        <v>1.18</v>
+      </c>
+      <c r="AD202">
+        <v>6</v>
+      </c>
+      <c r="AE202">
+        <v>9.5</v>
+      </c>
+      <c r="AF202">
+        <v>1.01</v>
+      </c>
+      <c r="AG202">
+        <v>26</v>
+      </c>
+      <c r="AH202">
+        <v>1.1</v>
+      </c>
+      <c r="AI202">
+        <v>6</v>
+      </c>
+      <c r="AJ202">
+        <v>1.5</v>
+      </c>
+      <c r="AK202">
+        <v>2.41</v>
+      </c>
+      <c r="AL202">
+        <v>1.8</v>
+      </c>
+      <c r="AM202">
+        <v>1.9</v>
+      </c>
+      <c r="AN202">
+        <v>1.05</v>
+      </c>
+      <c r="AO202">
+        <v>1.1</v>
+      </c>
+      <c r="AP202">
+        <v>3.9</v>
+      </c>
+      <c r="AQ202">
+        <v>2.4</v>
+      </c>
+      <c r="AR202">
+        <v>1.5</v>
+      </c>
+      <c r="AS202">
+        <v>2.45</v>
+      </c>
+      <c r="AT202">
+        <v>1.36</v>
+      </c>
+      <c r="AU202">
+        <v>1.63</v>
+      </c>
+      <c r="AV202">
+        <v>1.14</v>
+      </c>
+      <c r="AW202">
+        <v>2.77</v>
+      </c>
+      <c r="AX202">
+        <v>1.1</v>
+      </c>
+      <c r="AY202">
+        <v>13</v>
+      </c>
+      <c r="AZ202">
+        <v>8</v>
+      </c>
+      <c r="BA202">
+        <v>1.15</v>
+      </c>
+      <c r="BB202">
+        <v>1.31</v>
+      </c>
+      <c r="BC202">
+        <v>1.52</v>
+      </c>
+      <c r="BD202">
+        <v>1.9</v>
+      </c>
+      <c r="BE202">
+        <v>2.34</v>
+      </c>
+      <c r="BF202">
+        <v>8</v>
+      </c>
+      <c r="BG202">
+        <v>3</v>
+      </c>
+      <c r="BH202">
+        <v>12</v>
+      </c>
+      <c r="BI202">
+        <v>4</v>
+      </c>
+      <c r="BJ202">
+        <v>20</v>
+      </c>
+      <c r="BK202">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>6703442</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45122.875</v>
+      </c>
+      <c r="F203">
+        <v>4</v>
+      </c>
+      <c r="G203" t="s">
+        <v>72</v>
+      </c>
+      <c r="H203" t="s">
+        <v>75</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>3</v>
+      </c>
+      <c r="O203" t="s">
+        <v>236</v>
+      </c>
+      <c r="P203" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q203">
+        <v>10</v>
+      </c>
+      <c r="R203">
+        <v>3</v>
+      </c>
+      <c r="S203">
+        <v>13</v>
+      </c>
+      <c r="T203">
+        <v>1.83</v>
+      </c>
+      <c r="U203">
+        <v>2.38</v>
+      </c>
+      <c r="V203">
+        <v>7.6</v>
+      </c>
+      <c r="W203">
+        <v>1.3</v>
+      </c>
+      <c r="X203">
+        <v>3.2</v>
+      </c>
+      <c r="Y203">
+        <v>2.62</v>
+      </c>
+      <c r="Z203">
+        <v>1.44</v>
+      </c>
+      <c r="AA203">
+        <v>6</v>
+      </c>
+      <c r="AB203">
+        <v>1.1</v>
+      </c>
+      <c r="AC203">
+        <v>1.3</v>
+      </c>
+      <c r="AD203">
+        <v>4.6</v>
+      </c>
+      <c r="AE203">
+        <v>8.5</v>
+      </c>
+      <c r="AF203">
+        <v>1.02</v>
+      </c>
+      <c r="AG203">
+        <v>12</v>
+      </c>
+      <c r="AH203">
+        <v>1.22</v>
+      </c>
+      <c r="AI203">
+        <v>3.75</v>
+      </c>
+      <c r="AJ203">
+        <v>1.61</v>
+      </c>
+      <c r="AK203">
+        <v>2.17</v>
+      </c>
+      <c r="AL203">
+        <v>2.15</v>
+      </c>
+      <c r="AM203">
+        <v>1.62</v>
+      </c>
+      <c r="AN203">
+        <v>1.07</v>
+      </c>
+      <c r="AO203">
+        <v>1.14</v>
+      </c>
+      <c r="AP203">
+        <v>3.1</v>
+      </c>
+      <c r="AQ203">
+        <v>2</v>
+      </c>
+      <c r="AR203">
+        <v>0.4</v>
+      </c>
+      <c r="AS203">
+        <v>2.09</v>
+      </c>
+      <c r="AT203">
+        <v>0.36</v>
+      </c>
+      <c r="AU203">
+        <v>1.67</v>
+      </c>
+      <c r="AV203">
+        <v>0.77</v>
+      </c>
+      <c r="AW203">
+        <v>2.44</v>
+      </c>
+      <c r="AX203">
+        <v>1.22</v>
+      </c>
+      <c r="AY203">
+        <v>10</v>
+      </c>
+      <c r="AZ203">
+        <v>4.75</v>
+      </c>
+      <c r="BA203">
+        <v>1.22</v>
+      </c>
+      <c r="BB203">
+        <v>1.41</v>
+      </c>
+      <c r="BC203">
+        <v>1.68</v>
+      </c>
+      <c r="BD203">
+        <v>2.1</v>
+      </c>
+      <c r="BE203">
+        <v>2.7</v>
+      </c>
+      <c r="BF203">
+        <v>4</v>
+      </c>
+      <c r="BG203">
+        <v>4</v>
+      </c>
+      <c r="BH203">
+        <v>5</v>
+      </c>
+      <c r="BI203">
+        <v>6</v>
+      </c>
+      <c r="BJ203">
+        <v>9</v>
+      </c>
+      <c r="BK203">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>6703443</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45123.625</v>
+      </c>
+      <c r="F204">
+        <v>4</v>
+      </c>
+      <c r="G204" t="s">
+        <v>66</v>
+      </c>
+      <c r="H204" t="s">
+        <v>76</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>2</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+      <c r="N204">
+        <v>3</v>
+      </c>
+      <c r="O204" t="s">
+        <v>237</v>
+      </c>
+      <c r="P204" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q204">
+        <v>7</v>
+      </c>
+      <c r="R204">
+        <v>1</v>
+      </c>
+      <c r="S204">
+        <v>8</v>
+      </c>
+      <c r="T204">
+        <v>1.96</v>
+      </c>
+      <c r="U204">
+        <v>2.55</v>
+      </c>
+      <c r="V204">
+        <v>5</v>
+      </c>
+      <c r="W204">
+        <v>1.29</v>
+      </c>
+      <c r="X204">
+        <v>3.25</v>
+      </c>
+      <c r="Y204">
+        <v>2.38</v>
+      </c>
+      <c r="Z204">
+        <v>1.53</v>
+      </c>
+      <c r="AA204">
+        <v>5.5</v>
+      </c>
+      <c r="AB204">
+        <v>1.12</v>
+      </c>
+      <c r="AC204">
+        <v>1.33</v>
+      </c>
+      <c r="AD204">
+        <v>5.25</v>
+      </c>
+      <c r="AE204">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AF204">
+        <v>1.01</v>
+      </c>
+      <c r="AG204">
+        <v>19</v>
+      </c>
+      <c r="AH204">
+        <v>1.18</v>
+      </c>
+      <c r="AI204">
+        <v>4.75</v>
+      </c>
+      <c r="AJ204">
+        <v>1.58</v>
+      </c>
+      <c r="AK204">
+        <v>2.3</v>
+      </c>
+      <c r="AL204">
+        <v>1.65</v>
+      </c>
+      <c r="AM204">
+        <v>2.18</v>
+      </c>
+      <c r="AN204">
+        <v>1.11</v>
+      </c>
+      <c r="AO204">
+        <v>1.18</v>
+      </c>
+      <c r="AP204">
+        <v>2.45</v>
+      </c>
+      <c r="AQ204">
+        <v>1.8</v>
+      </c>
+      <c r="AR204">
+        <v>0.2</v>
+      </c>
+      <c r="AS204">
+        <v>1.91</v>
+      </c>
+      <c r="AT204">
+        <v>0.18</v>
+      </c>
+      <c r="AU204">
+        <v>1.78</v>
+      </c>
+      <c r="AV204">
+        <v>1.47</v>
+      </c>
+      <c r="AW204">
+        <v>3.25</v>
+      </c>
+      <c r="AX204">
+        <v>1.33</v>
+      </c>
+      <c r="AY204">
+        <v>9.5</v>
+      </c>
+      <c r="AZ204">
+        <v>4</v>
+      </c>
+      <c r="BA204">
+        <v>1.2</v>
+      </c>
+      <c r="BB204">
+        <v>1.38</v>
+      </c>
+      <c r="BC204">
+        <v>1.7</v>
+      </c>
+      <c r="BD204">
+        <v>2.13</v>
+      </c>
+      <c r="BE204">
+        <v>2.8</v>
+      </c>
+      <c r="BF204">
+        <v>5</v>
+      </c>
+      <c r="BG204">
+        <v>3</v>
+      </c>
+      <c r="BH204">
+        <v>8</v>
+      </c>
+      <c r="BI204">
+        <v>1</v>
+      </c>
+      <c r="BJ204">
+        <v>13</v>
+      </c>
+      <c r="BK204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>6703444</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45123.70833333334</v>
+      </c>
+      <c r="F205">
+        <v>4</v>
+      </c>
+      <c r="G205" t="s">
+        <v>71</v>
+      </c>
+      <c r="H205" t="s">
+        <v>81</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>1</v>
+      </c>
+      <c r="O205" t="s">
+        <v>97</v>
+      </c>
+      <c r="P205" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q205">
+        <v>1</v>
+      </c>
+      <c r="R205">
+        <v>5</v>
+      </c>
+      <c r="S205">
+        <v>6</v>
+      </c>
+      <c r="T205">
+        <v>6.8</v>
+      </c>
+      <c r="U205">
+        <v>2.55</v>
+      </c>
+      <c r="V205">
+        <v>1.8</v>
+      </c>
+      <c r="W205">
+        <v>1.33</v>
+      </c>
+      <c r="X205">
+        <v>3</v>
+      </c>
+      <c r="Y205">
+        <v>2.62</v>
+      </c>
+      <c r="Z205">
+        <v>1.44</v>
+      </c>
+      <c r="AA205">
+        <v>6.5</v>
+      </c>
+      <c r="AB205">
+        <v>1.08</v>
+      </c>
+      <c r="AC205">
+        <v>8.5</v>
+      </c>
+      <c r="AD205">
+        <v>4.75</v>
+      </c>
+      <c r="AE205">
+        <v>1.29</v>
+      </c>
+      <c r="AF205">
+        <v>1.02</v>
+      </c>
+      <c r="AG205">
+        <v>15</v>
+      </c>
+      <c r="AH205">
+        <v>1.22</v>
+      </c>
+      <c r="AI205">
+        <v>4.33</v>
+      </c>
+      <c r="AJ205">
+        <v>1.9</v>
+      </c>
+      <c r="AK205">
+        <v>1.8</v>
+      </c>
+      <c r="AL205">
+        <v>2.1</v>
+      </c>
+      <c r="AM205">
+        <v>1.7</v>
+      </c>
+      <c r="AN205">
+        <v>3.42</v>
+      </c>
+      <c r="AO205">
+        <v>1.12</v>
+      </c>
+      <c r="AP205">
+        <v>1.03</v>
+      </c>
+      <c r="AQ205">
+        <v>1.3</v>
+      </c>
+      <c r="AR205">
+        <v>1.8</v>
+      </c>
+      <c r="AS205">
+        <v>1.45</v>
+      </c>
+      <c r="AT205">
+        <v>1.64</v>
+      </c>
+      <c r="AU205">
+        <v>1.42</v>
+      </c>
+      <c r="AV205">
+        <v>1.08</v>
+      </c>
+      <c r="AW205">
+        <v>2.5</v>
+      </c>
+      <c r="AX205">
+        <v>3.5</v>
+      </c>
+      <c r="AY205">
+        <v>7.5</v>
+      </c>
+      <c r="AZ205">
+        <v>1.5</v>
+      </c>
+      <c r="BA205">
+        <v>0</v>
+      </c>
+      <c r="BB205">
+        <v>0</v>
+      </c>
+      <c r="BC205">
+        <v>1.45</v>
+      </c>
+      <c r="BD205">
+        <v>1.75</v>
+      </c>
+      <c r="BE205">
+        <v>2.2</v>
+      </c>
+      <c r="BF205">
+        <v>6</v>
+      </c>
+      <c r="BG205">
+        <v>3</v>
+      </c>
+      <c r="BH205">
+        <v>6</v>
+      </c>
+      <c r="BI205">
+        <v>7</v>
+      </c>
+      <c r="BJ205">
+        <v>12</v>
+      </c>
+      <c r="BK205">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Peru Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1329,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK205"/>
+  <dimension ref="A1:BK207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT2">
         <v>1.2</v>
@@ -1854,7 +1854,7 @@
         <v>1.91</v>
       </c>
       <c r="AT3">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>1.64</v>
       </c>
       <c r="AT5">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT10">
         <v>1.36</v>
@@ -5101,7 +5101,7 @@
         <v>2.45</v>
       </c>
       <c r="AT20">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5483,7 +5483,7 @@
         <v>2</v>
       </c>
       <c r="AT22">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -6244,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT26">
         <v>0.55</v>
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT27">
         <v>0.18</v>
@@ -8921,7 +8921,7 @@
         <v>2.73</v>
       </c>
       <c r="AT40">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU40">
         <v>1.92</v>
@@ -9109,7 +9109,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT41">
         <v>1.55</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT42">
         <v>0.36</v>
@@ -10258,7 +10258,7 @@
         <v>0.73</v>
       </c>
       <c r="AT47">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU47">
         <v>1.14</v>
@@ -11213,7 +11213,7 @@
         <v>1.64</v>
       </c>
       <c r="AT52">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU52">
         <v>1.35</v>
@@ -12356,7 +12356,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT58">
         <v>1.36</v>
@@ -12550,7 +12550,7 @@
         <v>2.73</v>
       </c>
       <c r="AT59">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU59">
         <v>1.85</v>
@@ -13120,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT62">
         <v>0.36</v>
@@ -13505,7 +13505,7 @@
         <v>1.7</v>
       </c>
       <c r="AT64">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU64">
         <v>2.03</v>
@@ -14266,7 +14266,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT68">
         <v>1.64</v>
@@ -15033,7 +15033,7 @@
         <v>2.82</v>
       </c>
       <c r="AT72">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU72">
         <v>1.76</v>
@@ -15985,7 +15985,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT77">
         <v>0.18</v>
@@ -16943,7 +16943,7 @@
         <v>2</v>
       </c>
       <c r="AT82">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU82">
         <v>2.45</v>
@@ -17898,7 +17898,7 @@
         <v>2.09</v>
       </c>
       <c r="AT87">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU87">
         <v>1.27</v>
@@ -18850,7 +18850,7 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT92">
         <v>1.27</v>
@@ -20378,7 +20378,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT100">
         <v>1.55</v>
@@ -20572,7 +20572,7 @@
         <v>1.64</v>
       </c>
       <c r="AT101">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU101">
         <v>1.54</v>
@@ -22288,7 +22288,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT110">
         <v>0.55</v>
@@ -22482,7 +22482,7 @@
         <v>1.7</v>
       </c>
       <c r="AT111">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU111">
         <v>1.82</v>
@@ -23052,7 +23052,7 @@
         <v>1.6</v>
       </c>
       <c r="AS114">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT114">
         <v>1.4</v>
@@ -24392,7 +24392,7 @@
         <v>1.36</v>
       </c>
       <c r="AT121">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU121">
         <v>1.46</v>
@@ -28212,7 +28212,7 @@
         <v>1.91</v>
       </c>
       <c r="AT141">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU141">
         <v>1.83</v>
@@ -28400,7 +28400,7 @@
         <v>1.14</v>
       </c>
       <c r="AS142">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT142">
         <v>1.2</v>
@@ -29546,7 +29546,7 @@
         <v>0.29</v>
       </c>
       <c r="AS148">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT148">
         <v>1</v>
@@ -30313,7 +30313,7 @@
         <v>1.5</v>
       </c>
       <c r="AT152">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU152">
         <v>1.71</v>
@@ -30886,7 +30886,7 @@
         <v>2.45</v>
       </c>
       <c r="AT155">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU155">
         <v>1.61</v>
@@ -31456,7 +31456,7 @@
         <v>0.63</v>
       </c>
       <c r="AS158">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT158">
         <v>0.55</v>
@@ -33939,7 +33939,7 @@
         <v>0.88</v>
       </c>
       <c r="AS171">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT171">
         <v>0.91</v>
@@ -35849,7 +35849,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS181">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT181">
         <v>0.55</v>
@@ -36425,7 +36425,7 @@
         <v>1.36</v>
       </c>
       <c r="AT184">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU184">
         <v>2.14</v>
@@ -36613,7 +36613,7 @@
         <v>1.67</v>
       </c>
       <c r="AS185">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT185">
         <v>1.64</v>
@@ -37189,7 +37189,7 @@
         <v>2.09</v>
       </c>
       <c r="AT188">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU188">
         <v>1.75</v>
@@ -40472,22 +40472,404 @@
         <v>2.2</v>
       </c>
       <c r="BF205">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG205">
         <v>3</v>
       </c>
       <c r="BH205">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI205">
+        <v>5</v>
+      </c>
+      <c r="BJ205">
+        <v>11</v>
+      </c>
+      <c r="BK205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>6703445</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45123.79166666666</v>
+      </c>
+      <c r="F206">
+        <v>4</v>
+      </c>
+      <c r="G206" t="s">
+        <v>65</v>
+      </c>
+      <c r="H206" t="s">
+        <v>74</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206" t="s">
+        <v>84</v>
+      </c>
+      <c r="P206" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q206">
+        <v>3</v>
+      </c>
+      <c r="R206">
+        <v>8</v>
+      </c>
+      <c r="S206">
+        <v>11</v>
+      </c>
+      <c r="T206">
+        <v>2.8</v>
+      </c>
+      <c r="U206">
+        <v>2.13</v>
+      </c>
+      <c r="V206">
+        <v>3.7</v>
+      </c>
+      <c r="W206">
+        <v>1.4</v>
+      </c>
+      <c r="X206">
+        <v>2.75</v>
+      </c>
+      <c r="Y206">
+        <v>3</v>
+      </c>
+      <c r="Z206">
+        <v>1.33</v>
+      </c>
+      <c r="AA206">
+        <v>8</v>
+      </c>
+      <c r="AB206">
+        <v>1.06</v>
+      </c>
+      <c r="AC206">
+        <v>2.18</v>
+      </c>
+      <c r="AD206">
+        <v>3.35</v>
+      </c>
+      <c r="AE206">
+        <v>3.2</v>
+      </c>
+      <c r="AF206">
+        <v>1.06</v>
+      </c>
+      <c r="AG206">
+        <v>9.5</v>
+      </c>
+      <c r="AH206">
+        <v>1.38</v>
+      </c>
+      <c r="AI206">
+        <v>3</v>
+      </c>
+      <c r="AJ206">
+        <v>2.15</v>
+      </c>
+      <c r="AK206">
+        <v>1.68</v>
+      </c>
+      <c r="AL206">
+        <v>1.9</v>
+      </c>
+      <c r="AM206">
+        <v>1.87</v>
+      </c>
+      <c r="AN206">
+        <v>1.35</v>
+      </c>
+      <c r="AO206">
+        <v>1.25</v>
+      </c>
+      <c r="AP206">
+        <v>1.68</v>
+      </c>
+      <c r="AQ206">
+        <v>2.7</v>
+      </c>
+      <c r="AR206">
+        <v>0.9</v>
+      </c>
+      <c r="AS206">
+        <v>2.55</v>
+      </c>
+      <c r="AT206">
+        <v>0.91</v>
+      </c>
+      <c r="AU206">
+        <v>1.65</v>
+      </c>
+      <c r="AV206">
+        <v>1.17</v>
+      </c>
+      <c r="AW206">
+        <v>2.82</v>
+      </c>
+      <c r="AX206">
+        <v>1.7</v>
+      </c>
+      <c r="AY206">
         <v>7</v>
       </c>
-      <c r="BJ205">
-        <v>12</v>
-      </c>
-      <c r="BK205">
+      <c r="AZ206">
+        <v>2.9</v>
+      </c>
+      <c r="BA206">
+        <v>0</v>
+      </c>
+      <c r="BB206">
+        <v>1.4</v>
+      </c>
+      <c r="BC206">
+        <v>1.67</v>
+      </c>
+      <c r="BD206">
+        <v>2.1</v>
+      </c>
+      <c r="BE206">
+        <v>2.75</v>
+      </c>
+      <c r="BF206">
+        <v>0</v>
+      </c>
+      <c r="BG206">
+        <v>2</v>
+      </c>
+      <c r="BH206">
+        <v>5</v>
+      </c>
+      <c r="BI206">
+        <v>11</v>
+      </c>
+      <c r="BJ206">
+        <v>5</v>
+      </c>
+      <c r="BK206">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>6703446</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45124.70833333334</v>
+      </c>
+      <c r="F207">
+        <v>4</v>
+      </c>
+      <c r="G207" t="s">
+        <v>73</v>
+      </c>
+      <c r="H207" t="s">
+        <v>82</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>84</v>
+      </c>
+      <c r="P207" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q207">
+        <v>4</v>
+      </c>
+      <c r="R207">
+        <v>7</v>
+      </c>
+      <c r="S207">
+        <v>11</v>
+      </c>
+      <c r="T207">
+        <v>5.05</v>
+      </c>
+      <c r="U207">
+        <v>2.11</v>
+      </c>
+      <c r="V207">
+        <v>2.38</v>
+      </c>
+      <c r="W207">
+        <v>1.43</v>
+      </c>
+      <c r="X207">
+        <v>2.71</v>
+      </c>
+      <c r="Y207">
+        <v>3</v>
+      </c>
+      <c r="Z207">
+        <v>1.36</v>
+      </c>
+      <c r="AA207">
+        <v>7.9</v>
+      </c>
+      <c r="AB207">
+        <v>1.06</v>
+      </c>
+      <c r="AC207">
+        <v>4.33</v>
+      </c>
+      <c r="AD207">
+        <v>3.56</v>
+      </c>
+      <c r="AE207">
+        <v>1.83</v>
+      </c>
+      <c r="AF207">
+        <v>1.06</v>
+      </c>
+      <c r="AG207">
+        <v>9</v>
+      </c>
+      <c r="AH207">
+        <v>1.3</v>
+      </c>
+      <c r="AI207">
+        <v>3.25</v>
+      </c>
+      <c r="AJ207">
+        <v>1.8</v>
+      </c>
+      <c r="AK207">
+        <v>1.83</v>
+      </c>
+      <c r="AL207">
+        <v>1.94</v>
+      </c>
+      <c r="AM207">
+        <v>1.82</v>
+      </c>
+      <c r="AN207">
+        <v>1.95</v>
+      </c>
+      <c r="AO207">
+        <v>1.26</v>
+      </c>
+      <c r="AP207">
+        <v>1.18</v>
+      </c>
+      <c r="AQ207">
+        <v>1.3</v>
+      </c>
+      <c r="AR207">
+        <v>0.9</v>
+      </c>
+      <c r="AS207">
+        <v>1.18</v>
+      </c>
+      <c r="AT207">
+        <v>1.09</v>
+      </c>
+      <c r="AU207">
+        <v>1.47</v>
+      </c>
+      <c r="AV207">
+        <v>1.33</v>
+      </c>
+      <c r="AW207">
+        <v>2.8</v>
+      </c>
+      <c r="AX207">
+        <v>3.1</v>
+      </c>
+      <c r="AY207">
+        <v>8.5</v>
+      </c>
+      <c r="AZ207">
+        <v>1.5</v>
+      </c>
+      <c r="BA207">
+        <v>1.19</v>
+      </c>
+      <c r="BB207">
+        <v>1.39</v>
+      </c>
+      <c r="BC207">
+        <v>1.7</v>
+      </c>
+      <c r="BD207">
+        <v>2.13</v>
+      </c>
+      <c r="BE207">
+        <v>2.85</v>
+      </c>
+      <c r="BF207">
+        <v>4</v>
+      </c>
+      <c r="BG207">
+        <v>7</v>
+      </c>
+      <c r="BH207">
+        <v>1</v>
+      </c>
+      <c r="BI207">
         <v>10</v>
+      </c>
+      <c r="BJ207">
+        <v>5</v>
+      </c>
+      <c r="BK207">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Peru Primera División_2023.xlsx
@@ -40857,19 +40857,19 @@
         <v>4</v>
       </c>
       <c r="BG207">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH207">
         <v>1</v>
       </c>
       <c r="BI207">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BJ207">
         <v>5</v>
       </c>
       <c r="BK207">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Peru Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="323">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,18 @@
     <t>['54', '90+14']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['29', '57']</t>
+  </si>
+  <si>
+    <t>['60', '82']</t>
+  </si>
+  <si>
+    <t>['25', '39', '46', '51']</t>
+  </si>
+  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -809,9 +821,6 @@
   </si>
   <si>
     <t>['14', '19']</t>
-  </si>
-  <si>
-    <t>['42']</t>
   </si>
   <si>
     <t>['52']</t>
@@ -968,6 +977,12 @@
   </si>
   <si>
     <t>['31', '54']</t>
+  </si>
+  <si>
+    <t>['19', '34', '61', '90+1']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK207"/>
+  <dimension ref="A1:BK216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1663,7 +1678,7 @@
         <v>2.55</v>
       </c>
       <c r="AT2">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2719,7 +2734,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2910,7 +2925,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3379,10 +3394,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT11">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3483,7 +3498,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3570,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT12">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3674,7 +3689,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3761,10 +3776,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT13">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3865,7 +3880,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3952,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT14">
         <v>1.55</v>
@@ -4143,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT15">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4334,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT16">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4525,10 +4540,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT17">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4716,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AT18">
         <v>1</v>
@@ -4820,7 +4835,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4907,10 +4922,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT19">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5393,7 +5408,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5966,7 +5981,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6157,7 +6172,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6730,7 +6745,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6817,10 +6832,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT29">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU29">
         <v>1.4</v>
@@ -7011,7 +7026,7 @@
         <v>1.36</v>
       </c>
       <c r="AT30">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -7199,10 +7214,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT31">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU31">
         <v>0.86</v>
@@ -7390,10 +7405,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT32">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU32">
         <v>3.15</v>
@@ -7581,10 +7596,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT33">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU33">
         <v>0.97</v>
@@ -7685,7 +7700,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7772,10 +7787,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
+        <v>0.92</v>
+      </c>
+      <c r="AT34">
         <v>0.73</v>
-      </c>
-      <c r="AT34">
-        <v>0.8</v>
       </c>
       <c r="AU34">
         <v>0.83</v>
@@ -7876,7 +7891,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -8640,7 +8655,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -9022,7 +9037,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9213,7 +9228,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q42">
         <v>11</v>
@@ -9491,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT43">
         <v>1</v>
@@ -9682,10 +9697,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AT44">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU44">
         <v>1.74</v>
@@ -9873,10 +9888,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT45">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU45">
         <v>1.14</v>
@@ -10067,7 +10082,7 @@
         <v>1.91</v>
       </c>
       <c r="AT46">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU46">
         <v>1.72</v>
@@ -10255,7 +10270,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT47">
         <v>0.91</v>
@@ -10359,7 +10374,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10449,7 +10464,7 @@
         <v>1.36</v>
       </c>
       <c r="AT48">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU48">
         <v>1.61</v>
@@ -10550,7 +10565,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10637,10 +10652,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT49">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10741,7 +10756,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11019,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT51">
         <v>0.36</v>
@@ -11314,7 +11329,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11401,7 +11416,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT53">
         <v>0.36</v>
@@ -11505,7 +11520,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11977,7 +11992,7 @@
         <v>2.45</v>
       </c>
       <c r="AT56">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU56">
         <v>1.15</v>
@@ -12078,7 +12093,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12842,7 +12857,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -12932,7 +12947,7 @@
         <v>2.09</v>
       </c>
       <c r="AT61">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU61">
         <v>1.9</v>
@@ -13224,7 +13239,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13502,7 +13517,7 @@
         <v>0.25</v>
       </c>
       <c r="AS64">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT64">
         <v>1.09</v>
@@ -13606,7 +13621,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13797,7 +13812,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14078,7 +14093,7 @@
         <v>1.64</v>
       </c>
       <c r="AT67">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU67">
         <v>1.37</v>
@@ -14269,7 +14284,7 @@
         <v>1.18</v>
       </c>
       <c r="AT68">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU68">
         <v>1.59</v>
@@ -14457,10 +14472,10 @@
         <v>3</v>
       </c>
       <c r="AS69">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT69">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU69">
         <v>1.78</v>
@@ -14651,7 +14666,7 @@
         <v>1.36</v>
       </c>
       <c r="AT70">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU70">
         <v>2.17</v>
@@ -14752,7 +14767,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14839,10 +14854,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT71">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU71">
         <v>1.27</v>
@@ -15030,7 +15045,7 @@
         <v>0.75</v>
       </c>
       <c r="AS72">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AT72">
         <v>0.91</v>
@@ -15134,7 +15149,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15221,7 +15236,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT73">
         <v>0.55</v>
@@ -15412,10 +15427,10 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT74">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU74">
         <v>1.42</v>
@@ -15707,7 +15722,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15794,10 +15809,10 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT76">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU76">
         <v>1.38</v>
@@ -16089,7 +16104,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16179,7 +16194,7 @@
         <v>1.45</v>
       </c>
       <c r="AT78">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU78">
         <v>1.56</v>
@@ -16558,7 +16573,7 @@
         <v>1.8</v>
       </c>
       <c r="AS80">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT80">
         <v>1.36</v>
@@ -16662,7 +16677,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16749,7 +16764,7 @@
         <v>1.8</v>
       </c>
       <c r="AS81">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT81">
         <v>1.64</v>
@@ -16853,7 +16868,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -17044,7 +17059,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17134,7 +17149,7 @@
         <v>2.73</v>
       </c>
       <c r="AT83">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU83">
         <v>1.74</v>
@@ -17235,7 +17250,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q84">
         <v>10</v>
@@ -17322,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT84">
         <v>0.36</v>
@@ -17617,7 +17632,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17895,7 +17910,7 @@
         <v>0.6</v>
       </c>
       <c r="AS87">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT87">
         <v>0.91</v>
@@ -17999,7 +18014,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -18089,7 +18104,7 @@
         <v>1.91</v>
       </c>
       <c r="AT88">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -18277,7 +18292,7 @@
         <v>0</v>
       </c>
       <c r="AS89">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AT89">
         <v>0.36</v>
@@ -18381,7 +18396,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q90">
         <v>19</v>
@@ -18471,7 +18486,7 @@
         <v>1.36</v>
       </c>
       <c r="AT90">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU90">
         <v>2.05</v>
@@ -18572,7 +18587,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18659,10 +18674,10 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT91">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU91">
         <v>1.71</v>
@@ -18763,7 +18778,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18853,7 +18868,7 @@
         <v>1.18</v>
       </c>
       <c r="AT92">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU92">
         <v>1.6</v>
@@ -18954,7 +18969,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19041,10 +19056,10 @@
         <v>1.4</v>
       </c>
       <c r="AS93">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT93">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU93">
         <v>1.44</v>
@@ -19232,7 +19247,7 @@
         <v>1.25</v>
       </c>
       <c r="AS94">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT94">
         <v>0.55</v>
@@ -19426,7 +19441,7 @@
         <v>1.64</v>
       </c>
       <c r="AT95">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU95">
         <v>1.42</v>
@@ -19527,7 +19542,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19614,7 +19629,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT96">
         <v>1.36</v>
@@ -19718,7 +19733,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19996,7 +20011,7 @@
         <v>0.2</v>
       </c>
       <c r="AS98">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT98">
         <v>0.18</v>
@@ -20100,7 +20115,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20187,7 +20202,7 @@
         <v>2</v>
       </c>
       <c r="AS99">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT99">
         <v>1.64</v>
@@ -20482,7 +20497,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20569,7 +20584,7 @@
         <v>0.5</v>
       </c>
       <c r="AS101">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT101">
         <v>1.09</v>
@@ -20673,7 +20688,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20763,7 +20778,7 @@
         <v>2.09</v>
       </c>
       <c r="AT102">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU102">
         <v>1.91</v>
@@ -20954,7 +20969,7 @@
         <v>2.73</v>
       </c>
       <c r="AT103">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU103">
         <v>1.79</v>
@@ -21145,7 +21160,7 @@
         <v>2.45</v>
       </c>
       <c r="AT104">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU104">
         <v>1.38</v>
@@ -21336,7 +21351,7 @@
         <v>1.91</v>
       </c>
       <c r="AT105">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU105">
         <v>1.79</v>
@@ -21437,7 +21452,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21527,7 +21542,7 @@
         <v>1.45</v>
       </c>
       <c r="AT106">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU106">
         <v>1.45</v>
@@ -21718,7 +21733,7 @@
         <v>1.36</v>
       </c>
       <c r="AT107">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU107">
         <v>2.14</v>
@@ -21906,7 +21921,7 @@
         <v>0</v>
       </c>
       <c r="AS108">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT108">
         <v>0.36</v>
@@ -22010,7 +22025,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22097,7 +22112,7 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT109">
         <v>0.55</v>
@@ -22291,7 +22306,7 @@
         <v>1.18</v>
       </c>
       <c r="AT110">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU110">
         <v>1.64</v>
@@ -22392,7 +22407,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22479,7 +22494,7 @@
         <v>0.5</v>
       </c>
       <c r="AS111">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT111">
         <v>0.91</v>
@@ -22670,7 +22685,7 @@
         <v>0.5</v>
       </c>
       <c r="AS112">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT112">
         <v>0.36</v>
@@ -22861,7 +22876,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT113">
         <v>0.18</v>
@@ -23055,7 +23070,7 @@
         <v>2.55</v>
       </c>
       <c r="AT114">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU114">
         <v>1.71</v>
@@ -23243,7 +23258,7 @@
         <v>1</v>
       </c>
       <c r="AS115">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT115">
         <v>0.91</v>
@@ -23437,7 +23452,7 @@
         <v>2</v>
       </c>
       <c r="AT116">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU116">
         <v>2.04</v>
@@ -23625,7 +23640,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT117">
         <v>1.55</v>
@@ -23729,7 +23744,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23819,7 +23834,7 @@
         <v>1.64</v>
       </c>
       <c r="AT118">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU118">
         <v>1.5</v>
@@ -24198,7 +24213,7 @@
         <v>1.71</v>
       </c>
       <c r="AS120">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AT120">
         <v>1.36</v>
@@ -24302,7 +24317,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24389,7 +24404,7 @@
         <v>0.57</v>
       </c>
       <c r="AS121">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT121">
         <v>1.09</v>
@@ -24493,7 +24508,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24580,7 +24595,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT122">
         <v>0.55</v>
@@ -24771,10 +24786,10 @@
         <v>1.25</v>
       </c>
       <c r="AS123">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AT123">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU123">
         <v>1.61</v>
@@ -24965,7 +24980,7 @@
         <v>2</v>
       </c>
       <c r="AT124">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU124">
         <v>1.99</v>
@@ -25153,7 +25168,7 @@
         <v>0.2</v>
       </c>
       <c r="AS125">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT125">
         <v>1</v>
@@ -25344,7 +25359,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT126">
         <v>0.91</v>
@@ -25448,7 +25463,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25535,10 +25550,10 @@
         <v>0.8</v>
       </c>
       <c r="AS127">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT127">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU127">
         <v>1.58</v>
@@ -25726,10 +25741,10 @@
         <v>0.67</v>
       </c>
       <c r="AS128">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT128">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU128">
         <v>1.56</v>
@@ -25830,7 +25845,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25917,10 +25932,10 @@
         <v>1.67</v>
       </c>
       <c r="AS129">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT129">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU129">
         <v>1.57</v>
@@ -26021,7 +26036,7 @@
         <v>144</v>
       </c>
       <c r="P130" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26108,10 +26123,10 @@
         <v>1</v>
       </c>
       <c r="AS130">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT130">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU130">
         <v>1.39</v>
@@ -26212,7 +26227,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -26299,7 +26314,7 @@
         <v>1.17</v>
       </c>
       <c r="AS131">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT131">
         <v>1.55</v>
@@ -26490,10 +26505,10 @@
         <v>1.33</v>
       </c>
       <c r="AS132">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AT132">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU132">
         <v>1.6</v>
@@ -26681,7 +26696,7 @@
         <v>0.17</v>
       </c>
       <c r="AS133">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT133">
         <v>1</v>
@@ -26872,10 +26887,10 @@
         <v>0.33</v>
       </c>
       <c r="AS134">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT134">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU134">
         <v>1.55</v>
@@ -27063,10 +27078,10 @@
         <v>1.17</v>
       </c>
       <c r="AS135">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT135">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU135">
         <v>1.76</v>
@@ -27167,7 +27182,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27254,7 +27269,7 @@
         <v>2.14</v>
       </c>
       <c r="AS136">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT136">
         <v>1.64</v>
@@ -27448,7 +27463,7 @@
         <v>2.73</v>
       </c>
       <c r="AT137">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU137">
         <v>1.87</v>
@@ -27636,7 +27651,7 @@
         <v>0</v>
       </c>
       <c r="AS138">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT138">
         <v>0.36</v>
@@ -27740,7 +27755,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27931,7 +27946,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28021,7 +28036,7 @@
         <v>2.45</v>
       </c>
       <c r="AT140">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU140">
         <v>1.49</v>
@@ -28313,7 +28328,7 @@
         <v>134</v>
       </c>
       <c r="P142" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28403,7 +28418,7 @@
         <v>1.18</v>
       </c>
       <c r="AT142">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU142">
         <v>1.58</v>
@@ -28504,7 +28519,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28594,7 +28609,7 @@
         <v>1.45</v>
       </c>
       <c r="AT143">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU143">
         <v>1.35</v>
@@ -28782,7 +28797,7 @@
         <v>0.43</v>
       </c>
       <c r="AS144">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT144">
         <v>0.36</v>
@@ -28973,7 +28988,7 @@
         <v>1.43</v>
       </c>
       <c r="AS145">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT145">
         <v>1.55</v>
@@ -29164,10 +29179,10 @@
         <v>1.14</v>
       </c>
       <c r="AS146">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT146">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU146">
         <v>1.46</v>
@@ -29268,7 +29283,7 @@
         <v>196</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29355,10 +29370,10 @@
         <v>0.57</v>
       </c>
       <c r="AS147">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT147">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU147">
         <v>1.52</v>
@@ -29650,7 +29665,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29737,7 +29752,7 @@
         <v>0.86</v>
       </c>
       <c r="AS149">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT149">
         <v>0.91</v>
@@ -29931,7 +29946,7 @@
         <v>1.64</v>
       </c>
       <c r="AT150">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU150">
         <v>1.57</v>
@@ -30032,7 +30047,7 @@
         <v>199</v>
       </c>
       <c r="P151" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30122,7 +30137,7 @@
         <v>2</v>
       </c>
       <c r="AT151">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU151">
         <v>2.15</v>
@@ -30223,7 +30238,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30310,7 +30325,7 @@
         <v>0.63</v>
       </c>
       <c r="AS152">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT152">
         <v>1.09</v>
@@ -30414,7 +30429,7 @@
         <v>201</v>
       </c>
       <c r="P153" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q153">
         <v>11</v>
@@ -30501,7 +30516,7 @@
         <v>0.29</v>
       </c>
       <c r="AS153">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AT153">
         <v>0.18</v>
@@ -30605,7 +30620,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -30692,10 +30707,10 @@
         <v>0.86</v>
       </c>
       <c r="AS154">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT154">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU154">
         <v>1.65</v>
@@ -30796,7 +30811,7 @@
         <v>203</v>
       </c>
       <c r="P155" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30987,7 +31002,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31074,7 +31089,7 @@
         <v>1.88</v>
       </c>
       <c r="AS156">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT156">
         <v>1.64</v>
@@ -31268,7 +31283,7 @@
         <v>2.73</v>
       </c>
       <c r="AT157">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU157">
         <v>1.95</v>
@@ -31647,7 +31662,7 @@
         <v>1.5</v>
       </c>
       <c r="AS159">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT159">
         <v>1.36</v>
@@ -31751,7 +31766,7 @@
         <v>208</v>
       </c>
       <c r="P160" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q160">
         <v>15</v>
@@ -32223,7 +32238,7 @@
         <v>1.45</v>
       </c>
       <c r="AT162">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU162">
         <v>1.42</v>
@@ -32414,7 +32429,7 @@
         <v>2.09</v>
       </c>
       <c r="AT163">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU163">
         <v>1.77</v>
@@ -32602,7 +32617,7 @@
         <v>0.25</v>
       </c>
       <c r="AS164">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT164">
         <v>1</v>
@@ -32706,7 +32721,7 @@
         <v>211</v>
       </c>
       <c r="P165" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32793,10 +32808,10 @@
         <v>0.5</v>
       </c>
       <c r="AS165">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT165">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU165">
         <v>1.79</v>
@@ -32897,7 +32912,7 @@
         <v>84</v>
       </c>
       <c r="P166" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q166">
         <v>2</v>
@@ -32984,10 +32999,10 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT166">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU166">
         <v>1.27</v>
@@ -33088,7 +33103,7 @@
         <v>212</v>
       </c>
       <c r="P167" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33175,7 +33190,7 @@
         <v>0.25</v>
       </c>
       <c r="AS167">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT167">
         <v>0.18</v>
@@ -33279,7 +33294,7 @@
         <v>213</v>
       </c>
       <c r="P168" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33366,7 +33381,7 @@
         <v>0.75</v>
       </c>
       <c r="AS168">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT168">
         <v>0.91</v>
@@ -33470,7 +33485,7 @@
         <v>214</v>
       </c>
       <c r="P169" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33557,7 +33572,7 @@
         <v>1.38</v>
       </c>
       <c r="AS169">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AT169">
         <v>1.55</v>
@@ -33748,10 +33763,10 @@
         <v>1.63</v>
       </c>
       <c r="AS170">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT170">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU170">
         <v>1.57</v>
@@ -33942,7 +33957,7 @@
         <v>2.55</v>
       </c>
       <c r="AT171">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU171">
         <v>1.62</v>
@@ -34133,7 +34148,7 @@
         <v>2</v>
       </c>
       <c r="AT172">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU172">
         <v>2.09</v>
@@ -34234,7 +34249,7 @@
         <v>84</v>
       </c>
       <c r="P173" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q173">
         <v>5</v>
@@ -34321,10 +34336,10 @@
         <v>1.56</v>
       </c>
       <c r="AS173">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT173">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU173">
         <v>1.26</v>
@@ -34512,7 +34527,7 @@
         <v>0.78</v>
       </c>
       <c r="AS174">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT174">
         <v>0.91</v>
@@ -34616,7 +34631,7 @@
         <v>92</v>
       </c>
       <c r="P175" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q175">
         <v>4</v>
@@ -34703,10 +34718,10 @@
         <v>1.11</v>
       </c>
       <c r="AS175">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT175">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU175">
         <v>1.47</v>
@@ -34894,10 +34909,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS176">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AT176">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU176">
         <v>1.77</v>
@@ -35088,7 +35103,7 @@
         <v>2</v>
       </c>
       <c r="AT177">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU177">
         <v>2.04</v>
@@ -35189,7 +35204,7 @@
         <v>84</v>
       </c>
       <c r="P178" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q178">
         <v>1</v>
@@ -35276,7 +35291,7 @@
         <v>1.22</v>
       </c>
       <c r="AS178">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT178">
         <v>1.55</v>
@@ -35380,7 +35395,7 @@
         <v>220</v>
       </c>
       <c r="P179" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -35467,7 +35482,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS179">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT179">
         <v>1</v>
@@ -35571,7 +35586,7 @@
         <v>221</v>
       </c>
       <c r="P180" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35658,10 +35673,10 @@
         <v>1.22</v>
       </c>
       <c r="AS180">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT180">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU180">
         <v>1.82</v>
@@ -35852,7 +35867,7 @@
         <v>2.55</v>
       </c>
       <c r="AT181">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU181">
         <v>1.64</v>
@@ -36043,7 +36058,7 @@
         <v>1.64</v>
       </c>
       <c r="AT182">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU182">
         <v>1.58</v>
@@ -36231,7 +36246,7 @@
         <v>0.22</v>
       </c>
       <c r="AS183">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT183">
         <v>0.18</v>
@@ -36335,7 +36350,7 @@
         <v>224</v>
       </c>
       <c r="P184" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36908,7 +36923,7 @@
         <v>84</v>
       </c>
       <c r="P187" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37099,7 +37114,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37759,10 +37774,10 @@
         <v>0.5</v>
       </c>
       <c r="AS191">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT191">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU191">
         <v>1.61</v>
@@ -37863,7 +37878,7 @@
         <v>228</v>
       </c>
       <c r="P192" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -37950,10 +37965,10 @@
         <v>1.1</v>
       </c>
       <c r="AS192">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT192">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU192">
         <v>1.28</v>
@@ -38141,10 +38156,10 @@
         <v>0.7</v>
       </c>
       <c r="AS193">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT193">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU193">
         <v>1.46</v>
@@ -38245,7 +38260,7 @@
         <v>229</v>
       </c>
       <c r="P194" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -38332,10 +38347,10 @@
         <v>0.5</v>
       </c>
       <c r="AS194">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT194">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU194">
         <v>1.49</v>
@@ -38523,10 +38538,10 @@
         <v>1.7</v>
       </c>
       <c r="AS195">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AT195">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU195">
         <v>1.74</v>
@@ -38627,7 +38642,7 @@
         <v>84</v>
       </c>
       <c r="P196" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q196">
         <v>7</v>
@@ -38714,7 +38729,7 @@
         <v>0.8</v>
       </c>
       <c r="AS196">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT196">
         <v>1</v>
@@ -38818,7 +38833,7 @@
         <v>230</v>
       </c>
       <c r="P197" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -38905,7 +38920,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT197">
         <v>1.55</v>
@@ -39009,7 +39024,7 @@
         <v>231</v>
       </c>
       <c r="P198" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q198">
         <v>6</v>
@@ -39099,7 +39114,7 @@
         <v>2</v>
       </c>
       <c r="AT198">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU198">
         <v>2.02</v>
@@ -39200,7 +39215,7 @@
         <v>232</v>
       </c>
       <c r="P199" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q199">
         <v>10</v>
@@ -39582,7 +39597,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q201">
         <v>6</v>
@@ -39773,7 +39788,7 @@
         <v>235</v>
       </c>
       <c r="P202" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -40870,6 +40885,1725 @@
       </c>
       <c r="BK207">
         <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>6797986</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45128.625</v>
+      </c>
+      <c r="F208">
+        <v>5</v>
+      </c>
+      <c r="G208" t="s">
+        <v>79</v>
+      </c>
+      <c r="H208" t="s">
+        <v>72</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>2</v>
+      </c>
+      <c r="K208">
+        <v>3</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>4</v>
+      </c>
+      <c r="N208">
+        <v>5</v>
+      </c>
+      <c r="O208" t="s">
+        <v>238</v>
+      </c>
+      <c r="P208" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q208">
+        <v>4</v>
+      </c>
+      <c r="R208">
+        <v>7</v>
+      </c>
+      <c r="S208">
+        <v>11</v>
+      </c>
+      <c r="T208">
+        <v>3.75</v>
+      </c>
+      <c r="U208">
+        <v>2.1</v>
+      </c>
+      <c r="V208">
+        <v>3</v>
+      </c>
+      <c r="W208">
+        <v>1.42</v>
+      </c>
+      <c r="X208">
+        <v>2.85</v>
+      </c>
+      <c r="Y208">
+        <v>2.9</v>
+      </c>
+      <c r="Z208">
+        <v>1.4</v>
+      </c>
+      <c r="AA208">
+        <v>7</v>
+      </c>
+      <c r="AB208">
+        <v>1.08</v>
+      </c>
+      <c r="AC208">
+        <v>2.58</v>
+      </c>
+      <c r="AD208">
+        <v>3.38</v>
+      </c>
+      <c r="AE208">
+        <v>2.68</v>
+      </c>
+      <c r="AF208">
+        <v>1.05</v>
+      </c>
+      <c r="AG208">
+        <v>10</v>
+      </c>
+      <c r="AH208">
+        <v>1.3</v>
+      </c>
+      <c r="AI208">
+        <v>3.4</v>
+      </c>
+      <c r="AJ208">
+        <v>1.87</v>
+      </c>
+      <c r="AK208">
+        <v>1.86</v>
+      </c>
+      <c r="AL208">
+        <v>1.75</v>
+      </c>
+      <c r="AM208">
+        <v>2.05</v>
+      </c>
+      <c r="AN208">
+        <v>1.66</v>
+      </c>
+      <c r="AO208">
+        <v>1.28</v>
+      </c>
+      <c r="AP208">
+        <v>1.35</v>
+      </c>
+      <c r="AQ208">
+        <v>1.36</v>
+      </c>
+      <c r="AR208">
+        <v>0.91</v>
+      </c>
+      <c r="AS208">
+        <v>1.25</v>
+      </c>
+      <c r="AT208">
+        <v>1.08</v>
+      </c>
+      <c r="AU208">
+        <v>1.78</v>
+      </c>
+      <c r="AV208">
+        <v>1.06</v>
+      </c>
+      <c r="AW208">
+        <v>2.84</v>
+      </c>
+      <c r="AX208">
+        <v>1.83</v>
+      </c>
+      <c r="AY208">
+        <v>8.5</v>
+      </c>
+      <c r="AZ208">
+        <v>2.25</v>
+      </c>
+      <c r="BA208">
+        <v>1.17</v>
+      </c>
+      <c r="BB208">
+        <v>1.3</v>
+      </c>
+      <c r="BC208">
+        <v>1.54</v>
+      </c>
+      <c r="BD208">
+        <v>2</v>
+      </c>
+      <c r="BE208">
+        <v>2.47</v>
+      </c>
+      <c r="BF208">
+        <v>4</v>
+      </c>
+      <c r="BG208">
+        <v>8</v>
+      </c>
+      <c r="BH208">
+        <v>6</v>
+      </c>
+      <c r="BI208">
+        <v>3</v>
+      </c>
+      <c r="BJ208">
+        <v>10</v>
+      </c>
+      <c r="BK208">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>6797990</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45128.90625</v>
+      </c>
+      <c r="F209">
+        <v>5</v>
+      </c>
+      <c r="G209" t="s">
+        <v>74</v>
+      </c>
+      <c r="H209" t="s">
+        <v>83</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209" t="s">
+        <v>157</v>
+      </c>
+      <c r="P209" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q209">
+        <v>8</v>
+      </c>
+      <c r="R209">
+        <v>2</v>
+      </c>
+      <c r="S209">
+        <v>10</v>
+      </c>
+      <c r="T209">
+        <v>2.75</v>
+      </c>
+      <c r="U209">
+        <v>2.05</v>
+      </c>
+      <c r="V209">
+        <v>3.75</v>
+      </c>
+      <c r="W209">
+        <v>1.42</v>
+      </c>
+      <c r="X209">
+        <v>2.65</v>
+      </c>
+      <c r="Y209">
+        <v>2.9</v>
+      </c>
+      <c r="Z209">
+        <v>1.34</v>
+      </c>
+      <c r="AA209">
+        <v>7.5</v>
+      </c>
+      <c r="AB209">
+        <v>1.06</v>
+      </c>
+      <c r="AC209">
+        <v>2.15</v>
+      </c>
+      <c r="AD209">
+        <v>3.1</v>
+      </c>
+      <c r="AE209">
+        <v>2.95</v>
+      </c>
+      <c r="AF209">
+        <v>1.04</v>
+      </c>
+      <c r="AG209">
+        <v>9.5</v>
+      </c>
+      <c r="AH209">
+        <v>1.31</v>
+      </c>
+      <c r="AI209">
+        <v>3.18</v>
+      </c>
+      <c r="AJ209">
+        <v>1.92</v>
+      </c>
+      <c r="AK209">
+        <v>1.88</v>
+      </c>
+      <c r="AL209">
+        <v>1.73</v>
+      </c>
+      <c r="AM209">
+        <v>2.05</v>
+      </c>
+      <c r="AN209">
+        <v>1.28</v>
+      </c>
+      <c r="AO209">
+        <v>1.31</v>
+      </c>
+      <c r="AP209">
+        <v>1.65</v>
+      </c>
+      <c r="AQ209">
+        <v>1.82</v>
+      </c>
+      <c r="AR209">
+        <v>1.2</v>
+      </c>
+      <c r="AS209">
+        <v>1.92</v>
+      </c>
+      <c r="AT209">
+        <v>1.09</v>
+      </c>
+      <c r="AU209">
+        <v>1.47</v>
+      </c>
+      <c r="AV209">
+        <v>1.25</v>
+      </c>
+      <c r="AW209">
+        <v>2.72</v>
+      </c>
+      <c r="AX209">
+        <v>1.35</v>
+      </c>
+      <c r="AY209">
+        <v>8</v>
+      </c>
+      <c r="AZ209">
+        <v>4.5</v>
+      </c>
+      <c r="BA209">
+        <v>0</v>
+      </c>
+      <c r="BB209">
+        <v>1.35</v>
+      </c>
+      <c r="BC209">
+        <v>1.6</v>
+      </c>
+      <c r="BD209">
+        <v>2</v>
+      </c>
+      <c r="BE209">
+        <v>2.6</v>
+      </c>
+      <c r="BF209">
+        <v>3</v>
+      </c>
+      <c r="BG209">
+        <v>3</v>
+      </c>
+      <c r="BH209">
+        <v>4</v>
+      </c>
+      <c r="BI209">
+        <v>5</v>
+      </c>
+      <c r="BJ209">
+        <v>7</v>
+      </c>
+      <c r="BK209">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>6797984</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45129.625</v>
+      </c>
+      <c r="F210">
+        <v>5</v>
+      </c>
+      <c r="G210" t="s">
+        <v>78</v>
+      </c>
+      <c r="H210" t="s">
+        <v>65</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>2</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210" t="s">
+        <v>239</v>
+      </c>
+      <c r="P210" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q210">
+        <v>1</v>
+      </c>
+      <c r="R210">
+        <v>7</v>
+      </c>
+      <c r="S210">
+        <v>8</v>
+      </c>
+      <c r="T210">
+        <v>2.75</v>
+      </c>
+      <c r="U210">
+        <v>2.1</v>
+      </c>
+      <c r="V210">
+        <v>4.2</v>
+      </c>
+      <c r="W210">
+        <v>1.42</v>
+      </c>
+      <c r="X210">
+        <v>2.85</v>
+      </c>
+      <c r="Y210">
+        <v>2.85</v>
+      </c>
+      <c r="Z210">
+        <v>1.4</v>
+      </c>
+      <c r="AA210">
+        <v>7</v>
+      </c>
+      <c r="AB210">
+        <v>1.08</v>
+      </c>
+      <c r="AC210">
+        <v>2.02</v>
+      </c>
+      <c r="AD210">
+        <v>3.09</v>
+      </c>
+      <c r="AE210">
+        <v>3.11</v>
+      </c>
+      <c r="AF210">
+        <v>1.05</v>
+      </c>
+      <c r="AG210">
+        <v>10</v>
+      </c>
+      <c r="AH210">
+        <v>1.3</v>
+      </c>
+      <c r="AI210">
+        <v>3.5</v>
+      </c>
+      <c r="AJ210">
+        <v>1.84</v>
+      </c>
+      <c r="AK210">
+        <v>1.86</v>
+      </c>
+      <c r="AL210">
+        <v>1.75</v>
+      </c>
+      <c r="AM210">
+        <v>2.05</v>
+      </c>
+      <c r="AN210">
+        <v>1.3</v>
+      </c>
+      <c r="AO210">
+        <v>1.28</v>
+      </c>
+      <c r="AP210">
+        <v>1.78</v>
+      </c>
+      <c r="AQ210">
+        <v>1.64</v>
+      </c>
+      <c r="AR210">
+        <v>0.8</v>
+      </c>
+      <c r="AS210">
+        <v>1.75</v>
+      </c>
+      <c r="AT210">
+        <v>0.73</v>
+      </c>
+      <c r="AU210">
+        <v>1.45</v>
+      </c>
+      <c r="AV210">
+        <v>1.23</v>
+      </c>
+      <c r="AW210">
+        <v>2.68</v>
+      </c>
+      <c r="AX210">
+        <v>2</v>
+      </c>
+      <c r="AY210">
+        <v>8</v>
+      </c>
+      <c r="AZ210">
+        <v>2</v>
+      </c>
+      <c r="BA210">
+        <v>1.17</v>
+      </c>
+      <c r="BB210">
+        <v>1.29</v>
+      </c>
+      <c r="BC210">
+        <v>1.48</v>
+      </c>
+      <c r="BD210">
+        <v>1.9</v>
+      </c>
+      <c r="BE210">
+        <v>2.4</v>
+      </c>
+      <c r="BF210">
+        <v>3</v>
+      </c>
+      <c r="BG210">
+        <v>7</v>
+      </c>
+      <c r="BH210">
+        <v>10</v>
+      </c>
+      <c r="BI210">
+        <v>3</v>
+      </c>
+      <c r="BJ210">
+        <v>13</v>
+      </c>
+      <c r="BK210">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>6797988</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45129.9375</v>
+      </c>
+      <c r="F211">
+        <v>5</v>
+      </c>
+      <c r="G211" t="s">
+        <v>81</v>
+      </c>
+      <c r="H211" t="s">
+        <v>67</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211" t="s">
+        <v>84</v>
+      </c>
+      <c r="P211" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q211">
+        <v>2</v>
+      </c>
+      <c r="R211">
+        <v>6</v>
+      </c>
+      <c r="S211">
+        <v>8</v>
+      </c>
+      <c r="T211">
+        <v>2.55</v>
+      </c>
+      <c r="U211">
+        <v>2.35</v>
+      </c>
+      <c r="V211">
+        <v>3.4</v>
+      </c>
+      <c r="W211">
+        <v>1.28</v>
+      </c>
+      <c r="X211">
+        <v>3.4</v>
+      </c>
+      <c r="Y211">
+        <v>2.25</v>
+      </c>
+      <c r="Z211">
+        <v>1.58</v>
+      </c>
+      <c r="AA211">
+        <v>4.8</v>
+      </c>
+      <c r="AB211">
+        <v>1.15</v>
+      </c>
+      <c r="AC211">
+        <v>1.92</v>
+      </c>
+      <c r="AD211">
+        <v>3.2</v>
+      </c>
+      <c r="AE211">
+        <v>3.45</v>
+      </c>
+      <c r="AF211">
+        <v>1.02</v>
+      </c>
+      <c r="AG211">
+        <v>18.25</v>
+      </c>
+      <c r="AH211">
+        <v>1.15</v>
+      </c>
+      <c r="AI211">
+        <v>4.67</v>
+      </c>
+      <c r="AJ211">
+        <v>2</v>
+      </c>
+      <c r="AK211">
+        <v>1.8</v>
+      </c>
+      <c r="AL211">
+        <v>1.48</v>
+      </c>
+      <c r="AM211">
+        <v>2.5</v>
+      </c>
+      <c r="AN211">
+        <v>1.32</v>
+      </c>
+      <c r="AO211">
+        <v>1.27</v>
+      </c>
+      <c r="AP211">
+        <v>1.68</v>
+      </c>
+      <c r="AQ211">
+        <v>2.82</v>
+      </c>
+      <c r="AR211">
+        <v>1.27</v>
+      </c>
+      <c r="AS211">
+        <v>2.67</v>
+      </c>
+      <c r="AT211">
+        <v>1.25</v>
+      </c>
+      <c r="AU211">
+        <v>1.68</v>
+      </c>
+      <c r="AV211">
+        <v>1.28</v>
+      </c>
+      <c r="AW211">
+        <v>2.96</v>
+      </c>
+      <c r="AX211">
+        <v>1.95</v>
+      </c>
+      <c r="AY211">
+        <v>7.5</v>
+      </c>
+      <c r="AZ211">
+        <v>2.1</v>
+      </c>
+      <c r="BA211">
+        <v>1.42</v>
+      </c>
+      <c r="BB211">
+        <v>1.85</v>
+      </c>
+      <c r="BC211">
+        <v>2.4</v>
+      </c>
+      <c r="BD211">
+        <v>3.34</v>
+      </c>
+      <c r="BE211">
+        <v>4.7</v>
+      </c>
+      <c r="BF211">
+        <v>5</v>
+      </c>
+      <c r="BG211">
+        <v>5</v>
+      </c>
+      <c r="BH211">
+        <v>1</v>
+      </c>
+      <c r="BI211">
+        <v>5</v>
+      </c>
+      <c r="BJ211">
+        <v>6</v>
+      </c>
+      <c r="BK211">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>6797985</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45130.625</v>
+      </c>
+      <c r="F212">
+        <v>5</v>
+      </c>
+      <c r="G212" t="s">
+        <v>75</v>
+      </c>
+      <c r="H212" t="s">
+        <v>68</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>2</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>2</v>
+      </c>
+      <c r="O212" t="s">
+        <v>240</v>
+      </c>
+      <c r="P212" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q212">
+        <v>2</v>
+      </c>
+      <c r="R212">
+        <v>9</v>
+      </c>
+      <c r="S212">
+        <v>11</v>
+      </c>
+      <c r="T212">
+        <v>2.55</v>
+      </c>
+      <c r="U212">
+        <v>2.1</v>
+      </c>
+      <c r="V212">
+        <v>4.4</v>
+      </c>
+      <c r="W212">
+        <v>1.36</v>
+      </c>
+      <c r="X212">
+        <v>2.85</v>
+      </c>
+      <c r="Y212">
+        <v>2.95</v>
+      </c>
+      <c r="Z212">
+        <v>1.34</v>
+      </c>
+      <c r="AA212">
+        <v>8</v>
+      </c>
+      <c r="AB212">
+        <v>1.06</v>
+      </c>
+      <c r="AC212">
+        <v>2.4</v>
+      </c>
+      <c r="AD212">
+        <v>3.2</v>
+      </c>
+      <c r="AE212">
+        <v>2.73</v>
+      </c>
+      <c r="AF212">
+        <v>1.05</v>
+      </c>
+      <c r="AG212">
+        <v>9.5</v>
+      </c>
+      <c r="AH212">
+        <v>1.28</v>
+      </c>
+      <c r="AI212">
+        <v>3.4</v>
+      </c>
+      <c r="AJ212">
+        <v>1.93</v>
+      </c>
+      <c r="AK212">
+        <v>1.78</v>
+      </c>
+      <c r="AL212">
+        <v>1.78</v>
+      </c>
+      <c r="AM212">
+        <v>1.95</v>
+      </c>
+      <c r="AN212">
+        <v>1.2</v>
+      </c>
+      <c r="AO212">
+        <v>1.29</v>
+      </c>
+      <c r="AP212">
+        <v>1.81</v>
+      </c>
+      <c r="AQ212">
+        <v>0.73</v>
+      </c>
+      <c r="AR212">
+        <v>0.55</v>
+      </c>
+      <c r="AS212">
+        <v>0.92</v>
+      </c>
+      <c r="AT212">
+        <v>0.5</v>
+      </c>
+      <c r="AU212">
+        <v>1.23</v>
+      </c>
+      <c r="AV212">
+        <v>1.29</v>
+      </c>
+      <c r="AW212">
+        <v>2.52</v>
+      </c>
+      <c r="AX212">
+        <v>2.1</v>
+      </c>
+      <c r="AY212">
+        <v>8.5</v>
+      </c>
+      <c r="AZ212">
+        <v>1.91</v>
+      </c>
+      <c r="BA212">
+        <v>0</v>
+      </c>
+      <c r="BB212">
+        <v>1.23</v>
+      </c>
+      <c r="BC212">
+        <v>1.39</v>
+      </c>
+      <c r="BD212">
+        <v>1.67</v>
+      </c>
+      <c r="BE212">
+        <v>2.1</v>
+      </c>
+      <c r="BF212">
+        <v>3</v>
+      </c>
+      <c r="BG212">
+        <v>5</v>
+      </c>
+      <c r="BH212">
+        <v>1</v>
+      </c>
+      <c r="BI212">
+        <v>9</v>
+      </c>
+      <c r="BJ212">
+        <v>4</v>
+      </c>
+      <c r="BK212">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>6797991</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45130.70833333334</v>
+      </c>
+      <c r="F213">
+        <v>5</v>
+      </c>
+      <c r="G213" t="s">
+        <v>80</v>
+      </c>
+      <c r="H213" t="s">
+        <v>71</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+      <c r="O213" t="s">
+        <v>84</v>
+      </c>
+      <c r="P213" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q213">
+        <v>6</v>
+      </c>
+      <c r="R213">
+        <v>9</v>
+      </c>
+      <c r="S213">
+        <v>15</v>
+      </c>
+      <c r="T213">
+        <v>2.95</v>
+      </c>
+      <c r="U213">
+        <v>2.2</v>
+      </c>
+      <c r="V213">
+        <v>3.5</v>
+      </c>
+      <c r="W213">
+        <v>1.36</v>
+      </c>
+      <c r="X213">
+        <v>3.1</v>
+      </c>
+      <c r="Y213">
+        <v>2.65</v>
+      </c>
+      <c r="Z213">
+        <v>1.44</v>
+      </c>
+      <c r="AA213">
+        <v>6.5</v>
+      </c>
+      <c r="AB213">
+        <v>1.09</v>
+      </c>
+      <c r="AC213">
+        <v>2.25</v>
+      </c>
+      <c r="AD213">
+        <v>3.1</v>
+      </c>
+      <c r="AE213">
+        <v>2.9</v>
+      </c>
+      <c r="AF213">
+        <v>1.04</v>
+      </c>
+      <c r="AG213">
+        <v>12</v>
+      </c>
+      <c r="AH213">
+        <v>1.25</v>
+      </c>
+      <c r="AI213">
+        <v>3.75</v>
+      </c>
+      <c r="AJ213">
+        <v>1.87</v>
+      </c>
+      <c r="AK213">
+        <v>1.75</v>
+      </c>
+      <c r="AL213">
+        <v>1.65</v>
+      </c>
+      <c r="AM213">
+        <v>2.2</v>
+      </c>
+      <c r="AN213">
+        <v>1.4</v>
+      </c>
+      <c r="AO213">
+        <v>1.25</v>
+      </c>
+      <c r="AP213">
+        <v>1.62</v>
+      </c>
+      <c r="AQ213">
+        <v>1.5</v>
+      </c>
+      <c r="AR213">
+        <v>1</v>
+      </c>
+      <c r="AS213">
+        <v>1.45</v>
+      </c>
+      <c r="AT213">
+        <v>1</v>
+      </c>
+      <c r="AU213">
+        <v>1.53</v>
+      </c>
+      <c r="AV213">
+        <v>0.99</v>
+      </c>
+      <c r="AW213">
+        <v>2.52</v>
+      </c>
+      <c r="AX213">
+        <v>1.7</v>
+      </c>
+      <c r="AY213">
+        <v>7</v>
+      </c>
+      <c r="AZ213">
+        <v>2.9</v>
+      </c>
+      <c r="BA213">
+        <v>1.16</v>
+      </c>
+      <c r="BB213">
+        <v>1.36</v>
+      </c>
+      <c r="BC213">
+        <v>1.65</v>
+      </c>
+      <c r="BD213">
+        <v>2</v>
+      </c>
+      <c r="BE213">
+        <v>2.6</v>
+      </c>
+      <c r="BF213">
+        <v>5</v>
+      </c>
+      <c r="BG213">
+        <v>0</v>
+      </c>
+      <c r="BH213">
+        <v>6</v>
+      </c>
+      <c r="BI213">
+        <v>9</v>
+      </c>
+      <c r="BJ213">
+        <v>11</v>
+      </c>
+      <c r="BK213">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>6797992</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45130.72916666666</v>
+      </c>
+      <c r="F214">
+        <v>5</v>
+      </c>
+      <c r="G214" t="s">
+        <v>82</v>
+      </c>
+      <c r="H214" t="s">
+        <v>70</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" t="s">
+        <v>90</v>
+      </c>
+      <c r="P214" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q214">
+        <v>8</v>
+      </c>
+      <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
+        <v>10</v>
+      </c>
+      <c r="T214">
+        <v>2.75</v>
+      </c>
+      <c r="U214">
+        <v>2.25</v>
+      </c>
+      <c r="V214">
+        <v>3.6</v>
+      </c>
+      <c r="W214">
+        <v>1.25</v>
+      </c>
+      <c r="X214">
+        <v>3.5</v>
+      </c>
+      <c r="Y214">
+        <v>2.25</v>
+      </c>
+      <c r="Z214">
+        <v>1.57</v>
+      </c>
+      <c r="AA214">
+        <v>5.5</v>
+      </c>
+      <c r="AB214">
+        <v>1.12</v>
+      </c>
+      <c r="AC214">
+        <v>2.1</v>
+      </c>
+      <c r="AD214">
+        <v>3.4</v>
+      </c>
+      <c r="AE214">
+        <v>3.1</v>
+      </c>
+      <c r="AF214">
+        <v>1.02</v>
+      </c>
+      <c r="AG214">
+        <v>15</v>
+      </c>
+      <c r="AH214">
+        <v>1.14</v>
+      </c>
+      <c r="AI214">
+        <v>5</v>
+      </c>
+      <c r="AJ214">
+        <v>1.61</v>
+      </c>
+      <c r="AK214">
+        <v>2.1</v>
+      </c>
+      <c r="AL214">
+        <v>1.45</v>
+      </c>
+      <c r="AM214">
+        <v>2.66</v>
+      </c>
+      <c r="AN214">
+        <v>1.33</v>
+      </c>
+      <c r="AO214">
+        <v>1.27</v>
+      </c>
+      <c r="AP214">
+        <v>1.63</v>
+      </c>
+      <c r="AQ214">
+        <v>2.09</v>
+      </c>
+      <c r="AR214">
+        <v>1.64</v>
+      </c>
+      <c r="AS214">
+        <v>2</v>
+      </c>
+      <c r="AT214">
+        <v>1.58</v>
+      </c>
+      <c r="AU214">
+        <v>1.69</v>
+      </c>
+      <c r="AV214">
+        <v>1.41</v>
+      </c>
+      <c r="AW214">
+        <v>3.1</v>
+      </c>
+      <c r="AX214">
+        <v>1.62</v>
+      </c>
+      <c r="AY214">
+        <v>8.5</v>
+      </c>
+      <c r="AZ214">
+        <v>2.6</v>
+      </c>
+      <c r="BA214">
+        <v>1.21</v>
+      </c>
+      <c r="BB214">
+        <v>1.37</v>
+      </c>
+      <c r="BC214">
+        <v>1.65</v>
+      </c>
+      <c r="BD214">
+        <v>2.1</v>
+      </c>
+      <c r="BE214">
+        <v>2.75</v>
+      </c>
+      <c r="BF214">
+        <v>3</v>
+      </c>
+      <c r="BG214">
+        <v>6</v>
+      </c>
+      <c r="BH214">
+        <v>9</v>
+      </c>
+      <c r="BI214">
+        <v>2</v>
+      </c>
+      <c r="BJ214">
+        <v>12</v>
+      </c>
+      <c r="BK214">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>6797987</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45130.72916666666</v>
+      </c>
+      <c r="F215">
+        <v>5</v>
+      </c>
+      <c r="G215" t="s">
+        <v>77</v>
+      </c>
+      <c r="H215" t="s">
+        <v>66</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>1</v>
+      </c>
+      <c r="O215" t="s">
+        <v>134</v>
+      </c>
+      <c r="P215" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q215">
+        <v>5</v>
+      </c>
+      <c r="R215">
+        <v>5</v>
+      </c>
+      <c r="S215">
+        <v>10</v>
+      </c>
+      <c r="T215">
+        <v>2.3</v>
+      </c>
+      <c r="U215">
+        <v>2.3</v>
+      </c>
+      <c r="V215">
+        <v>4.75</v>
+      </c>
+      <c r="W215">
+        <v>1.35</v>
+      </c>
+      <c r="X215">
+        <v>3.2</v>
+      </c>
+      <c r="Y215">
+        <v>2.6</v>
+      </c>
+      <c r="Z215">
+        <v>1.47</v>
+      </c>
+      <c r="AA215">
+        <v>6</v>
+      </c>
+      <c r="AB215">
+        <v>1.11</v>
+      </c>
+      <c r="AC215">
+        <v>1.7</v>
+      </c>
+      <c r="AD215">
+        <v>3.6</v>
+      </c>
+      <c r="AE215">
+        <v>4.33</v>
+      </c>
+      <c r="AF215">
+        <v>1.03</v>
+      </c>
+      <c r="AG215">
+        <v>13</v>
+      </c>
+      <c r="AH215">
+        <v>1.22</v>
+      </c>
+      <c r="AI215">
+        <v>4</v>
+      </c>
+      <c r="AJ215">
+        <v>1.67</v>
+      </c>
+      <c r="AK215">
+        <v>2</v>
+      </c>
+      <c r="AL215">
+        <v>1.72</v>
+      </c>
+      <c r="AM215">
+        <v>2.05</v>
+      </c>
+      <c r="AN215">
+        <v>1.18</v>
+      </c>
+      <c r="AO215">
+        <v>1.2</v>
+      </c>
+      <c r="AP215">
+        <v>2.1</v>
+      </c>
+      <c r="AQ215">
+        <v>1.7</v>
+      </c>
+      <c r="AR215">
+        <v>0.45</v>
+      </c>
+      <c r="AS215">
+        <v>1.82</v>
+      </c>
+      <c r="AT215">
+        <v>0.42</v>
+      </c>
+      <c r="AU215">
+        <v>1.93</v>
+      </c>
+      <c r="AV215">
+        <v>1.22</v>
+      </c>
+      <c r="AW215">
+        <v>3.15</v>
+      </c>
+      <c r="AX215">
+        <v>1.53</v>
+      </c>
+      <c r="AY215">
+        <v>9</v>
+      </c>
+      <c r="AZ215">
+        <v>2.75</v>
+      </c>
+      <c r="BA215">
+        <v>1.14</v>
+      </c>
+      <c r="BB215">
+        <v>1.25</v>
+      </c>
+      <c r="BC215">
+        <v>1.45</v>
+      </c>
+      <c r="BD215">
+        <v>1.8</v>
+      </c>
+      <c r="BE215">
+        <v>2.27</v>
+      </c>
+      <c r="BF215">
+        <v>2</v>
+      </c>
+      <c r="BG215">
+        <v>4</v>
+      </c>
+      <c r="BH215">
+        <v>4</v>
+      </c>
+      <c r="BI215">
+        <v>0</v>
+      </c>
+      <c r="BJ215">
+        <v>6</v>
+      </c>
+      <c r="BK215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>6797989</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45131.625</v>
+      </c>
+      <c r="F216">
+        <v>5</v>
+      </c>
+      <c r="G216" t="s">
+        <v>76</v>
+      </c>
+      <c r="H216" t="s">
+        <v>73</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>2</v>
+      </c>
+      <c r="L216">
+        <v>4</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>5</v>
+      </c>
+      <c r="O216" t="s">
+        <v>241</v>
+      </c>
+      <c r="P216" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q216">
+        <v>5</v>
+      </c>
+      <c r="R216">
+        <v>4</v>
+      </c>
+      <c r="S216">
+        <v>9</v>
+      </c>
+      <c r="T216">
+        <v>1.95</v>
+      </c>
+      <c r="U216">
+        <v>2.45</v>
+      </c>
+      <c r="V216">
+        <v>6.5</v>
+      </c>
+      <c r="W216">
+        <v>1.33</v>
+      </c>
+      <c r="X216">
+        <v>3.25</v>
+      </c>
+      <c r="Y216">
+        <v>2.6</v>
+      </c>
+      <c r="Z216">
+        <v>1.47</v>
+      </c>
+      <c r="AA216">
+        <v>6</v>
+      </c>
+      <c r="AB216">
+        <v>1.11</v>
+      </c>
+      <c r="AC216">
+        <v>1.5</v>
+      </c>
+      <c r="AD216">
+        <v>4.2</v>
+      </c>
+      <c r="AE216">
+        <v>6</v>
+      </c>
+      <c r="AF216">
+        <v>1.03</v>
+      </c>
+      <c r="AG216">
+        <v>15</v>
+      </c>
+      <c r="AH216">
+        <v>1.22</v>
+      </c>
+      <c r="AI216">
+        <v>4</v>
+      </c>
+      <c r="AJ216">
+        <v>1.86</v>
+      </c>
+      <c r="AK216">
+        <v>1.91</v>
+      </c>
+      <c r="AL216">
+        <v>1.95</v>
+      </c>
+      <c r="AM216">
+        <v>1.83</v>
+      </c>
+      <c r="AN216">
+        <v>1.1</v>
+      </c>
+      <c r="AO216">
+        <v>1.16</v>
+      </c>
+      <c r="AP216">
+        <v>2.8</v>
+      </c>
+      <c r="AQ216">
+        <v>1.6</v>
+      </c>
+      <c r="AR216">
+        <v>1.4</v>
+      </c>
+      <c r="AS216">
+        <v>1.73</v>
+      </c>
+      <c r="AT216">
+        <v>1.27</v>
+      </c>
+      <c r="AU216">
+        <v>1.9</v>
+      </c>
+      <c r="AV216">
+        <v>1.24</v>
+      </c>
+      <c r="AW216">
+        <v>3.14</v>
+      </c>
+      <c r="AX216">
+        <v>1.25</v>
+      </c>
+      <c r="AY216">
+        <v>10</v>
+      </c>
+      <c r="AZ216">
+        <v>4.5</v>
+      </c>
+      <c r="BA216">
+        <v>1.21</v>
+      </c>
+      <c r="BB216">
+        <v>1.39</v>
+      </c>
+      <c r="BC216">
+        <v>1.7</v>
+      </c>
+      <c r="BD216">
+        <v>2.15</v>
+      </c>
+      <c r="BE216">
+        <v>2.85</v>
+      </c>
+      <c r="BF216">
+        <v>4</v>
+      </c>
+      <c r="BG216">
+        <v>4</v>
+      </c>
+      <c r="BH216">
+        <v>6</v>
+      </c>
+      <c r="BI216">
+        <v>4</v>
+      </c>
+      <c r="BJ216">
+        <v>10</v>
+      </c>
+      <c r="BK216">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Peru Primera División_2023.xlsx
@@ -8613,7 +8613,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>5053001</v>
+        <v>5053003</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -8628,10 +8628,10 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -8643,40 +8643,40 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <v>1</v>
       </c>
       <c r="O39" t="s">
+        <v>114</v>
+      </c>
+      <c r="P39" t="s">
         <v>84</v>
       </c>
-      <c r="P39" t="s">
-        <v>254</v>
-      </c>
       <c r="Q39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R39">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="U39">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V39">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="W39">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X39">
         <v>2.95</v>
@@ -8694,13 +8694,13 @@
         <v>1.07</v>
       </c>
       <c r="AC39">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="AD39">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AE39">
-        <v>2.34</v>
+        <v>3.05</v>
       </c>
       <c r="AF39">
         <v>1.04</v>
@@ -8715,88 +8715,88 @@
         <v>3.65</v>
       </c>
       <c r="AJ39">
+        <v>1.91</v>
+      </c>
+      <c r="AK39">
         <v>1.9</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
+        <v>1.65</v>
+      </c>
+      <c r="AM39">
+        <v>2.14</v>
+      </c>
+      <c r="AN39">
+        <v>1.34</v>
+      </c>
+      <c r="AO39">
+        <v>1.3</v>
+      </c>
+      <c r="AP39">
+        <v>1.55</v>
+      </c>
+      <c r="AQ39">
+        <v>1.5</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>2.73</v>
+      </c>
+      <c r="AT39">
+        <v>1.09</v>
+      </c>
+      <c r="AU39">
+        <v>1.92</v>
+      </c>
+      <c r="AV39">
+        <v>1.55</v>
+      </c>
+      <c r="AW39">
+        <v>3.47</v>
+      </c>
+      <c r="AX39">
         <v>1.91</v>
       </c>
-      <c r="AL39">
-        <v>1.67</v>
-      </c>
-      <c r="AM39">
-        <v>2.1</v>
-      </c>
-      <c r="AN39">
-        <v>1.47</v>
-      </c>
-      <c r="AO39">
-        <v>1.29</v>
-      </c>
-      <c r="AP39">
-        <v>1.42</v>
-      </c>
-      <c r="AQ39">
-        <v>3</v>
-      </c>
-      <c r="AR39">
-        <v>1.5</v>
-      </c>
-      <c r="AS39">
-        <v>1.64</v>
-      </c>
-      <c r="AT39">
-        <v>1.64</v>
-      </c>
-      <c r="AU39">
-        <v>1.54</v>
-      </c>
-      <c r="AV39">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AW39">
-        <v>2.23</v>
-      </c>
-      <c r="AX39">
-        <v>1.83</v>
-      </c>
       <c r="AY39">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ39">
         <v>2.2</v>
       </c>
       <c r="BA39">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BB39">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="BC39">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="BD39">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="BE39">
-        <v>2.49</v>
+        <v>2.79</v>
       </c>
       <c r="BF39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG39">
         <v>6</v>
       </c>
       <c r="BH39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BI39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ39">
         <v>11</v>
       </c>
       <c r="BK39">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:63">
@@ -8804,7 +8804,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>5053003</v>
+        <v>5053001</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
@@ -8819,10 +8819,10 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -8834,40 +8834,40 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="P40" t="s">
-        <v>84</v>
+        <v>254</v>
       </c>
       <c r="Q40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S40">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T40">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V40">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="W40">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X40">
         <v>2.95</v>
@@ -8885,13 +8885,13 @@
         <v>1.07</v>
       </c>
       <c r="AC40">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="AD40">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AE40">
-        <v>3.05</v>
+        <v>2.34</v>
       </c>
       <c r="AF40">
         <v>1.04</v>
@@ -8906,88 +8906,88 @@
         <v>3.65</v>
       </c>
       <c r="AJ40">
+        <v>1.9</v>
+      </c>
+      <c r="AK40">
         <v>1.91</v>
       </c>
-      <c r="AK40">
-        <v>1.9</v>
-      </c>
       <c r="AL40">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AM40">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="AN40">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="AO40">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AP40">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ40">
+        <v>3</v>
+      </c>
+      <c r="AR40">
         <v>1.5</v>
       </c>
-      <c r="AR40">
-        <v>0</v>
-      </c>
       <c r="AS40">
-        <v>2.73</v>
+        <v>1.64</v>
       </c>
       <c r="AT40">
-        <v>1.09</v>
+        <v>1.64</v>
       </c>
       <c r="AU40">
-        <v>1.92</v>
+        <v>1.54</v>
       </c>
       <c r="AV40">
-        <v>1.55</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AW40">
-        <v>3.47</v>
+        <v>2.23</v>
       </c>
       <c r="AX40">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AY40">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ40">
         <v>2.2</v>
       </c>
       <c r="BA40">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BB40">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="BC40">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="BD40">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="BE40">
-        <v>2.79</v>
+        <v>2.49</v>
       </c>
       <c r="BF40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG40">
         <v>6</v>
       </c>
       <c r="BH40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ40">
         <v>11</v>
       </c>
       <c r="BK40">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:63">
@@ -41824,19 +41824,19 @@
         <v>2.1</v>
       </c>
       <c r="BF212">
+        <v>7</v>
+      </c>
+      <c r="BG212">
+        <v>4</v>
+      </c>
+      <c r="BH212">
         <v>3</v>
       </c>
-      <c r="BG212">
-        <v>5</v>
-      </c>
-      <c r="BH212">
-        <v>1</v>
-      </c>
       <c r="BI212">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BJ212">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BK212">
         <v>14</v>
@@ -42015,19 +42015,19 @@
         <v>2.6</v>
       </c>
       <c r="BF213">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH213">
+        <v>8</v>
+      </c>
+      <c r="BI213">
         <v>6</v>
       </c>
-      <c r="BI213">
-        <v>9</v>
-      </c>
       <c r="BJ213">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK213">
         <v>9</v>
@@ -42038,7 +42038,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>6797992</v>
+        <v>6797987</v>
       </c>
       <c r="C214" t="s">
         <v>63</v>
@@ -42053,10 +42053,10 @@
         <v>5</v>
       </c>
       <c r="G214" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H214" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I214">
         <v>1</v>
@@ -42071,139 +42071,139 @@
         <v>1</v>
       </c>
       <c r="M214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O214" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="P214" t="s">
-        <v>322</v>
+        <v>84</v>
       </c>
       <c r="Q214">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S214">
         <v>10</v>
       </c>
       <c r="T214">
+        <v>2.3</v>
+      </c>
+      <c r="U214">
+        <v>2.3</v>
+      </c>
+      <c r="V214">
+        <v>4.75</v>
+      </c>
+      <c r="W214">
+        <v>1.35</v>
+      </c>
+      <c r="X214">
+        <v>3.2</v>
+      </c>
+      <c r="Y214">
+        <v>2.6</v>
+      </c>
+      <c r="Z214">
+        <v>1.47</v>
+      </c>
+      <c r="AA214">
+        <v>6</v>
+      </c>
+      <c r="AB214">
+        <v>1.11</v>
+      </c>
+      <c r="AC214">
+        <v>1.7</v>
+      </c>
+      <c r="AD214">
+        <v>3.6</v>
+      </c>
+      <c r="AE214">
+        <v>4.33</v>
+      </c>
+      <c r="AF214">
+        <v>1.03</v>
+      </c>
+      <c r="AG214">
+        <v>13</v>
+      </c>
+      <c r="AH214">
+        <v>1.22</v>
+      </c>
+      <c r="AI214">
+        <v>4</v>
+      </c>
+      <c r="AJ214">
+        <v>1.67</v>
+      </c>
+      <c r="AK214">
+        <v>2</v>
+      </c>
+      <c r="AL214">
+        <v>1.72</v>
+      </c>
+      <c r="AM214">
+        <v>2.05</v>
+      </c>
+      <c r="AN214">
+        <v>1.18</v>
+      </c>
+      <c r="AO214">
+        <v>1.2</v>
+      </c>
+      <c r="AP214">
+        <v>2.1</v>
+      </c>
+      <c r="AQ214">
+        <v>1.7</v>
+      </c>
+      <c r="AR214">
+        <v>0.45</v>
+      </c>
+      <c r="AS214">
+        <v>1.82</v>
+      </c>
+      <c r="AT214">
+        <v>0.42</v>
+      </c>
+      <c r="AU214">
+        <v>1.93</v>
+      </c>
+      <c r="AV214">
+        <v>1.22</v>
+      </c>
+      <c r="AW214">
+        <v>3.15</v>
+      </c>
+      <c r="AX214">
+        <v>1.53</v>
+      </c>
+      <c r="AY214">
+        <v>9</v>
+      </c>
+      <c r="AZ214">
         <v>2.75</v>
       </c>
-      <c r="U214">
-        <v>2.25</v>
-      </c>
-      <c r="V214">
-        <v>3.6</v>
-      </c>
-      <c r="W214">
+      <c r="BA214">
+        <v>1.14</v>
+      </c>
+      <c r="BB214">
         <v>1.25</v>
       </c>
-      <c r="X214">
-        <v>3.5</v>
-      </c>
-      <c r="Y214">
-        <v>2.25</v>
-      </c>
-      <c r="Z214">
-        <v>1.57</v>
-      </c>
-      <c r="AA214">
-        <v>5.5</v>
-      </c>
-      <c r="AB214">
-        <v>1.12</v>
-      </c>
-      <c r="AC214">
-        <v>2.1</v>
-      </c>
-      <c r="AD214">
-        <v>3.4</v>
-      </c>
-      <c r="AE214">
-        <v>3.1</v>
-      </c>
-      <c r="AF214">
-        <v>1.02</v>
-      </c>
-      <c r="AG214">
-        <v>15</v>
-      </c>
-      <c r="AH214">
-        <v>1.14</v>
-      </c>
-      <c r="AI214">
-        <v>5</v>
-      </c>
-      <c r="AJ214">
-        <v>1.61</v>
-      </c>
-      <c r="AK214">
-        <v>2.1</v>
-      </c>
-      <c r="AL214">
+      <c r="BC214">
         <v>1.45</v>
       </c>
-      <c r="AM214">
-        <v>2.66</v>
-      </c>
-      <c r="AN214">
-        <v>1.33</v>
-      </c>
-      <c r="AO214">
-        <v>1.27</v>
-      </c>
-      <c r="AP214">
-        <v>1.63</v>
-      </c>
-      <c r="AQ214">
-        <v>2.09</v>
-      </c>
-      <c r="AR214">
-        <v>1.64</v>
-      </c>
-      <c r="AS214">
-        <v>2</v>
-      </c>
-      <c r="AT214">
-        <v>1.58</v>
-      </c>
-      <c r="AU214">
-        <v>1.69</v>
-      </c>
-      <c r="AV214">
-        <v>1.41</v>
-      </c>
-      <c r="AW214">
-        <v>3.1</v>
-      </c>
-      <c r="AX214">
-        <v>1.62</v>
-      </c>
-      <c r="AY214">
-        <v>8.5</v>
-      </c>
-      <c r="AZ214">
-        <v>2.6</v>
-      </c>
-      <c r="BA214">
-        <v>1.21</v>
-      </c>
-      <c r="BB214">
-        <v>1.37</v>
-      </c>
-      <c r="BC214">
-        <v>1.65</v>
-      </c>
       <c r="BD214">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="BE214">
-        <v>2.75</v>
+        <v>2.27</v>
       </c>
       <c r="BF214">
         <v>3</v>
@@ -42212,16 +42212,16 @@
         <v>6</v>
       </c>
       <c r="BH214">
+        <v>6</v>
+      </c>
+      <c r="BI214">
+        <v>1</v>
+      </c>
+      <c r="BJ214">
         <v>9</v>
       </c>
-      <c r="BI214">
-        <v>2</v>
-      </c>
-      <c r="BJ214">
-        <v>12</v>
-      </c>
       <c r="BK214">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:63">
@@ -42229,7 +42229,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>6797987</v>
+        <v>6797992</v>
       </c>
       <c r="C215" t="s">
         <v>63</v>
@@ -42244,10 +42244,10 @@
         <v>5</v>
       </c>
       <c r="G215" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H215" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I215">
         <v>1</v>
@@ -42262,157 +42262,157 @@
         <v>1</v>
       </c>
       <c r="M215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O215" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="P215" t="s">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="Q215">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R215">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S215">
         <v>10</v>
       </c>
       <c r="T215">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="U215">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="V215">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="W215">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="X215">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Y215">
+        <v>2.25</v>
+      </c>
+      <c r="Z215">
+        <v>1.57</v>
+      </c>
+      <c r="AA215">
+        <v>5.5</v>
+      </c>
+      <c r="AB215">
+        <v>1.12</v>
+      </c>
+      <c r="AC215">
+        <v>2.1</v>
+      </c>
+      <c r="AD215">
+        <v>3.4</v>
+      </c>
+      <c r="AE215">
+        <v>3.1</v>
+      </c>
+      <c r="AF215">
+        <v>1.02</v>
+      </c>
+      <c r="AG215">
+        <v>15</v>
+      </c>
+      <c r="AH215">
+        <v>1.14</v>
+      </c>
+      <c r="AI215">
+        <v>5</v>
+      </c>
+      <c r="AJ215">
+        <v>1.61</v>
+      </c>
+      <c r="AK215">
+        <v>2.1</v>
+      </c>
+      <c r="AL215">
+        <v>1.45</v>
+      </c>
+      <c r="AM215">
+        <v>2.66</v>
+      </c>
+      <c r="AN215">
+        <v>1.33</v>
+      </c>
+      <c r="AO215">
+        <v>1.27</v>
+      </c>
+      <c r="AP215">
+        <v>1.63</v>
+      </c>
+      <c r="AQ215">
+        <v>2.09</v>
+      </c>
+      <c r="AR215">
+        <v>1.64</v>
+      </c>
+      <c r="AS215">
+        <v>2</v>
+      </c>
+      <c r="AT215">
+        <v>1.58</v>
+      </c>
+      <c r="AU215">
+        <v>1.69</v>
+      </c>
+      <c r="AV215">
+        <v>1.41</v>
+      </c>
+      <c r="AW215">
+        <v>3.1</v>
+      </c>
+      <c r="AX215">
+        <v>1.62</v>
+      </c>
+      <c r="AY215">
+        <v>8.5</v>
+      </c>
+      <c r="AZ215">
         <v>2.6</v>
       </c>
-      <c r="Z215">
-        <v>1.47</v>
-      </c>
-      <c r="AA215">
-        <v>6</v>
-      </c>
-      <c r="AB215">
-        <v>1.11</v>
-      </c>
-      <c r="AC215">
-        <v>1.7</v>
-      </c>
-      <c r="AD215">
-        <v>3.6</v>
-      </c>
-      <c r="AE215">
-        <v>4.33</v>
-      </c>
-      <c r="AF215">
-        <v>1.03</v>
-      </c>
-      <c r="AG215">
+      <c r="BA215">
+        <v>1.21</v>
+      </c>
+      <c r="BB215">
+        <v>1.37</v>
+      </c>
+      <c r="BC215">
+        <v>1.65</v>
+      </c>
+      <c r="BD215">
+        <v>2.1</v>
+      </c>
+      <c r="BE215">
+        <v>2.75</v>
+      </c>
+      <c r="BF215">
+        <v>4</v>
+      </c>
+      <c r="BG215">
+        <v>7</v>
+      </c>
+      <c r="BH215">
         <v>13</v>
       </c>
-      <c r="AH215">
-        <v>1.22</v>
-      </c>
-      <c r="AI215">
-        <v>4</v>
-      </c>
-      <c r="AJ215">
-        <v>1.67</v>
-      </c>
-      <c r="AK215">
-        <v>2</v>
-      </c>
-      <c r="AL215">
-        <v>1.72</v>
-      </c>
-      <c r="AM215">
-        <v>2.05</v>
-      </c>
-      <c r="AN215">
-        <v>1.18</v>
-      </c>
-      <c r="AO215">
-        <v>1.2</v>
-      </c>
-      <c r="AP215">
-        <v>2.1</v>
-      </c>
-      <c r="AQ215">
-        <v>1.7</v>
-      </c>
-      <c r="AR215">
-        <v>0.45</v>
-      </c>
-      <c r="AS215">
-        <v>1.82</v>
-      </c>
-      <c r="AT215">
-        <v>0.42</v>
-      </c>
-      <c r="AU215">
-        <v>1.93</v>
-      </c>
-      <c r="AV215">
-        <v>1.22</v>
-      </c>
-      <c r="AW215">
-        <v>3.15</v>
-      </c>
-      <c r="AX215">
-        <v>1.53</v>
-      </c>
-      <c r="AY215">
+      <c r="BI215">
+        <v>2</v>
+      </c>
+      <c r="BJ215">
+        <v>17</v>
+      </c>
+      <c r="BK215">
         <v>9</v>
-      </c>
-      <c r="AZ215">
-        <v>2.75</v>
-      </c>
-      <c r="BA215">
-        <v>1.14</v>
-      </c>
-      <c r="BB215">
-        <v>1.25</v>
-      </c>
-      <c r="BC215">
-        <v>1.45</v>
-      </c>
-      <c r="BD215">
-        <v>1.8</v>
-      </c>
-      <c r="BE215">
-        <v>2.27</v>
-      </c>
-      <c r="BF215">
-        <v>2</v>
-      </c>
-      <c r="BG215">
-        <v>4</v>
-      </c>
-      <c r="BH215">
-        <v>4</v>
-      </c>
-      <c r="BI215">
-        <v>0</v>
-      </c>
-      <c r="BJ215">
-        <v>6</v>
-      </c>
-      <c r="BK215">
-        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:63">
@@ -42588,22 +42588,22 @@
         <v>2.85</v>
       </c>
       <c r="BF216">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BG216">
         <v>4</v>
       </c>
       <c r="BH216">
+        <v>9</v>
+      </c>
+      <c r="BI216">
         <v>6</v>
       </c>
-      <c r="BI216">
-        <v>4</v>
-      </c>
       <c r="BJ216">
+        <v>18</v>
+      </c>
+      <c r="BK216">
         <v>10</v>
-      </c>
-      <c r="BK216">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Peru Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,24 @@
     <t>['25', '39', '46', '51']</t>
   </si>
   <si>
+    <t>['26', '36', '63', '73', '90+4']</t>
+  </si>
+  <si>
+    <t>['24', '65', '81']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['3', '25']</t>
+  </si>
+  <si>
+    <t>['26', '33', '89']</t>
+  </si>
+  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -928,9 +946,6 @@
     <t>['9', '53']</t>
   </si>
   <si>
-    <t>['19']</t>
-  </si>
-  <si>
     <t>['73', '90+4']</t>
   </si>
   <si>
@@ -983,6 +998,12 @@
   </si>
   <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['90+13']</t>
+  </si>
+  <si>
+    <t>['38', '43']</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK216"/>
+  <dimension ref="A1:BK224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1675,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT2">
         <v>1.09</v>
@@ -1866,10 +1887,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT3">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2057,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT4">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2248,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT5">
         <v>0.91</v>
@@ -2442,7 +2463,7 @@
         <v>1.36</v>
       </c>
       <c r="AT6">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2630,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT7">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2734,7 +2755,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2821,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT8">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2925,7 +2946,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3012,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT9">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3206,7 +3227,7 @@
         <v>1.18</v>
       </c>
       <c r="AT10">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3498,7 +3519,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3689,7 +3710,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3880,7 +3901,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3970,7 +3991,7 @@
         <v>1.82</v>
       </c>
       <c r="AT14">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4835,7 +4856,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -5113,10 +5134,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT20">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5304,10 +5325,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT21">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU21">
         <v>1.69</v>
@@ -5408,7 +5429,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5495,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT22">
         <v>0.91</v>
@@ -5686,10 +5707,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT23">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU23">
         <v>2.17</v>
@@ -5877,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT24">
         <v>0.91</v>
@@ -5981,7 +6002,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6068,10 +6089,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT25">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU25">
         <v>2.25</v>
@@ -6172,7 +6193,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6259,10 +6280,10 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT26">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6453,7 +6474,7 @@
         <v>1.18</v>
       </c>
       <c r="AT27">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6641,10 +6662,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT28">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6745,7 +6766,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -7700,7 +7721,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7891,7 +7912,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7978,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT35">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU35">
         <v>1.81</v>
@@ -8169,10 +8190,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT36">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU36">
         <v>2.39</v>
@@ -8360,7 +8381,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT37">
         <v>0.91</v>
@@ -8551,10 +8572,10 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT38">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU38">
         <v>1.84</v>
@@ -8742,10 +8763,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT39">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU39">
         <v>1.92</v>
@@ -8846,7 +8867,7 @@
         <v>84</v>
       </c>
       <c r="P40" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8933,10 +8954,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT40">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU40">
         <v>1.54</v>
@@ -9037,7 +9058,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9127,7 +9148,7 @@
         <v>1.18</v>
       </c>
       <c r="AT41">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU41">
         <v>1.47</v>
@@ -9228,7 +9249,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q42">
         <v>11</v>
@@ -9315,10 +9336,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT42">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -10079,7 +10100,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT46">
         <v>1.27</v>
@@ -10374,7 +10395,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10565,7 +10586,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10756,7 +10777,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10843,10 +10864,10 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT50">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU50">
         <v>1.67</v>
@@ -11037,7 +11058,7 @@
         <v>1.75</v>
       </c>
       <c r="AT51">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU51">
         <v>1.72</v>
@@ -11225,10 +11246,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT52">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU52">
         <v>1.35</v>
@@ -11329,7 +11350,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11419,7 +11440,7 @@
         <v>1.92</v>
       </c>
       <c r="AT53">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU53">
         <v>0.4</v>
@@ -11520,7 +11541,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11607,7 +11628,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT54">
         <v>0.91</v>
@@ -11798,10 +11819,10 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT55">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU55">
         <v>1.99</v>
@@ -11989,7 +12010,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT56">
         <v>0.42</v>
@@ -12093,7 +12114,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12180,10 +12201,10 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT57">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU57">
         <v>2.85</v>
@@ -12371,10 +12392,10 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT58">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU58">
         <v>1.94</v>
@@ -12562,7 +12583,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT59">
         <v>0.91</v>
@@ -12753,10 +12774,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT60">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU60">
         <v>1.12</v>
@@ -12857,7 +12878,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -12944,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT61">
         <v>1.09</v>
@@ -13138,7 +13159,7 @@
         <v>1.18</v>
       </c>
       <c r="AT62">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU62">
         <v>1.55</v>
@@ -13239,7 +13260,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13326,10 +13347,10 @@
         <v>1.5</v>
       </c>
       <c r="AS63">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT63">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU63">
         <v>1.33</v>
@@ -13520,7 +13541,7 @@
         <v>1.82</v>
       </c>
       <c r="AT64">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU64">
         <v>2.03</v>
@@ -13621,7 +13642,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13708,10 +13729,10 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT65">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU65">
         <v>1.6</v>
@@ -13812,7 +13833,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13902,7 +13923,7 @@
         <v>1.36</v>
       </c>
       <c r="AT66">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU66">
         <v>1.93</v>
@@ -14090,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT67">
         <v>0.73</v>
@@ -14767,7 +14788,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15149,7 +15170,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15239,7 +15260,7 @@
         <v>1.25</v>
       </c>
       <c r="AT73">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU73">
         <v>1.45</v>
@@ -15618,7 +15639,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT75">
         <v>1</v>
@@ -15722,7 +15743,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -16000,10 +16021,10 @@
         <v>0.25</v>
       </c>
       <c r="AS77">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT77">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU77">
         <v>1.75</v>
@@ -16104,7 +16125,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16191,7 +16212,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT78">
         <v>1.27</v>
@@ -16382,7 +16403,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT79">
         <v>0.91</v>
@@ -16576,7 +16597,7 @@
         <v>1.92</v>
       </c>
       <c r="AT80">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU80">
         <v>0.95</v>
@@ -16767,7 +16788,7 @@
         <v>1.75</v>
       </c>
       <c r="AT81">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU81">
         <v>1.67</v>
@@ -16868,7 +16889,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -16955,10 +16976,10 @@
         <v>0.4</v>
       </c>
       <c r="AS82">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT82">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU82">
         <v>2.45</v>
@@ -17059,7 +17080,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17146,7 +17167,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT83">
         <v>0.42</v>
@@ -17250,7 +17271,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q84">
         <v>10</v>
@@ -17340,7 +17361,7 @@
         <v>0.92</v>
       </c>
       <c r="AT84">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU84">
         <v>1.16</v>
@@ -17528,10 +17549,10 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT85">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU85">
         <v>1.99</v>
@@ -17632,7 +17653,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17719,7 +17740,7 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -18014,7 +18035,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -18101,7 +18122,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT88">
         <v>1.08</v>
@@ -18295,7 +18316,7 @@
         <v>2.67</v>
       </c>
       <c r="AT89">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU89">
         <v>1.6</v>
@@ -18396,7 +18417,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q90">
         <v>19</v>
@@ -18587,7 +18608,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18778,7 +18799,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18969,7 +18990,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19250,7 +19271,7 @@
         <v>1.45</v>
       </c>
       <c r="AT94">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU94">
         <v>1.35</v>
@@ -19438,7 +19459,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT95">
         <v>0.42</v>
@@ -19542,7 +19563,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19632,7 +19653,7 @@
         <v>0.92</v>
       </c>
       <c r="AT96">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU96">
         <v>1.42</v>
@@ -19733,7 +19754,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19820,7 +19841,7 @@
         <v>0.5</v>
       </c>
       <c r="AS97">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT97">
         <v>0.91</v>
@@ -20014,7 +20035,7 @@
         <v>1.92</v>
       </c>
       <c r="AT98">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU98">
         <v>1.17</v>
@@ -20115,7 +20136,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20205,7 +20226,7 @@
         <v>1.25</v>
       </c>
       <c r="AT99">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU99">
         <v>1.57</v>
@@ -20393,10 +20414,10 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT100">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU100">
         <v>1.72</v>
@@ -20497,7 +20518,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20587,7 +20608,7 @@
         <v>1.75</v>
       </c>
       <c r="AT101">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU101">
         <v>1.54</v>
@@ -20688,7 +20709,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20775,7 +20796,7 @@
         <v>1.75</v>
       </c>
       <c r="AS102">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT102">
         <v>1.27</v>
@@ -20966,7 +20987,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT103">
         <v>1.58</v>
@@ -21157,7 +21178,7 @@
         <v>1.33</v>
       </c>
       <c r="AS104">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT104">
         <v>1.08</v>
@@ -21348,7 +21369,7 @@
         <v>1.33</v>
       </c>
       <c r="AS105">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT105">
         <v>0.73</v>
@@ -21452,7 +21473,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21539,7 +21560,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT106">
         <v>1.25</v>
@@ -21924,7 +21945,7 @@
         <v>2</v>
       </c>
       <c r="AT108">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU108">
         <v>1.22</v>
@@ -22025,7 +22046,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22115,7 +22136,7 @@
         <v>1.73</v>
       </c>
       <c r="AT109">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU109">
         <v>1.69</v>
@@ -22407,7 +22428,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22688,7 +22709,7 @@
         <v>1.45</v>
       </c>
       <c r="AT112">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU112">
         <v>1.43</v>
@@ -22879,7 +22900,7 @@
         <v>0.92</v>
       </c>
       <c r="AT113">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU113">
         <v>1.42</v>
@@ -23067,7 +23088,7 @@
         <v>1.6</v>
       </c>
       <c r="AS114">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT114">
         <v>1.27</v>
@@ -23449,7 +23470,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT116">
         <v>0.42</v>
@@ -23643,7 +23664,7 @@
         <v>1.92</v>
       </c>
       <c r="AT117">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU117">
         <v>1.26</v>
@@ -23744,7 +23765,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23831,7 +23852,7 @@
         <v>0.75</v>
       </c>
       <c r="AS118">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT118">
         <v>1.58</v>
@@ -24022,7 +24043,7 @@
         <v>0.25</v>
       </c>
       <c r="AS119">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT119">
         <v>1</v>
@@ -24216,7 +24237,7 @@
         <v>2.67</v>
       </c>
       <c r="AT120">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU120">
         <v>1.64</v>
@@ -24317,7 +24338,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24407,7 +24428,7 @@
         <v>1.25</v>
       </c>
       <c r="AT121">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU121">
         <v>1.46</v>
@@ -24508,7 +24529,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24598,7 +24619,7 @@
         <v>1.92</v>
       </c>
       <c r="AT122">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU122">
         <v>1.37</v>
@@ -24977,7 +24998,7 @@
         <v>0.4</v>
       </c>
       <c r="AS124">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT124">
         <v>0.5</v>
@@ -25463,7 +25484,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25845,7 +25866,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -26036,7 +26057,7 @@
         <v>144</v>
       </c>
       <c r="P130" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26227,7 +26248,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -26317,7 +26338,7 @@
         <v>2</v>
       </c>
       <c r="AT131">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU131">
         <v>1.55</v>
@@ -27182,7 +27203,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27272,7 +27293,7 @@
         <v>2</v>
       </c>
       <c r="AT136">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU136">
         <v>1.74</v>
@@ -27460,7 +27481,7 @@
         <v>1</v>
       </c>
       <c r="AS137">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT137">
         <v>1.08</v>
@@ -27654,7 +27675,7 @@
         <v>1.82</v>
       </c>
       <c r="AT138">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU138">
         <v>1.79</v>
@@ -27755,7 +27776,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27845,7 +27866,7 @@
         <v>1.36</v>
       </c>
       <c r="AT139">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU139">
         <v>1.96</v>
@@ -27946,7 +27967,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28033,7 +28054,7 @@
         <v>1.14</v>
       </c>
       <c r="AS140">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT140">
         <v>0.73</v>
@@ -28224,7 +28245,7 @@
         <v>0.86</v>
       </c>
       <c r="AS141">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT141">
         <v>0.91</v>
@@ -28328,7 +28349,7 @@
         <v>134</v>
       </c>
       <c r="P142" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28519,7 +28540,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28606,7 +28627,7 @@
         <v>0.71</v>
       </c>
       <c r="AS143">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT143">
         <v>0.5</v>
@@ -28800,7 +28821,7 @@
         <v>1.73</v>
       </c>
       <c r="AT144">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU144">
         <v>1.78</v>
@@ -28991,7 +29012,7 @@
         <v>0.92</v>
       </c>
       <c r="AT145">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU145">
         <v>1.31</v>
@@ -29283,7 +29304,7 @@
         <v>196</v>
       </c>
       <c r="P147" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29561,7 +29582,7 @@
         <v>0.29</v>
       </c>
       <c r="AS148">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT148">
         <v>1</v>
@@ -29665,7 +29686,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29943,7 +29964,7 @@
         <v>1.43</v>
       </c>
       <c r="AS150">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT150">
         <v>1.25</v>
@@ -30047,7 +30068,7 @@
         <v>199</v>
       </c>
       <c r="P151" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30134,7 +30155,7 @@
         <v>1.43</v>
       </c>
       <c r="AS151">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT151">
         <v>1.58</v>
@@ -30238,7 +30259,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30328,7 +30349,7 @@
         <v>1.45</v>
       </c>
       <c r="AT152">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU152">
         <v>1.71</v>
@@ -30429,7 +30450,7 @@
         <v>201</v>
       </c>
       <c r="P153" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q153">
         <v>11</v>
@@ -30519,7 +30540,7 @@
         <v>2.67</v>
       </c>
       <c r="AT153">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU153">
         <v>1.58</v>
@@ -30620,7 +30641,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -30811,7 +30832,7 @@
         <v>203</v>
       </c>
       <c r="P155" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30898,7 +30919,7 @@
         <v>0.75</v>
       </c>
       <c r="AS155">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT155">
         <v>0.91</v>
@@ -31002,7 +31023,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31092,7 +31113,7 @@
         <v>1.82</v>
       </c>
       <c r="AT156">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU156">
         <v>1.91</v>
@@ -31280,7 +31301,7 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT157">
         <v>0.73</v>
@@ -31474,7 +31495,7 @@
         <v>1.18</v>
       </c>
       <c r="AT158">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU158">
         <v>1.59</v>
@@ -31665,7 +31686,7 @@
         <v>1.73</v>
       </c>
       <c r="AT159">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU159">
         <v>2.01</v>
@@ -31766,7 +31787,7 @@
         <v>208</v>
       </c>
       <c r="P160" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q160">
         <v>15</v>
@@ -31856,7 +31877,7 @@
         <v>1.36</v>
       </c>
       <c r="AT160">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU160">
         <v>1.99</v>
@@ -32044,10 +32065,10 @@
         <v>0.13</v>
       </c>
       <c r="AS161">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT161">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU161">
         <v>1.88</v>
@@ -32235,7 +32256,7 @@
         <v>1.38</v>
       </c>
       <c r="AS162">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT162">
         <v>1.09</v>
@@ -32426,7 +32447,7 @@
         <v>0.63</v>
       </c>
       <c r="AS163">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT163">
         <v>0.5</v>
@@ -32721,7 +32742,7 @@
         <v>211</v>
       </c>
       <c r="P165" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32912,7 +32933,7 @@
         <v>84</v>
       </c>
       <c r="P166" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q166">
         <v>2</v>
@@ -33103,7 +33124,7 @@
         <v>212</v>
       </c>
       <c r="P167" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33193,7 +33214,7 @@
         <v>2</v>
       </c>
       <c r="AT167">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU167">
         <v>1.69</v>
@@ -33485,7 +33506,7 @@
         <v>214</v>
       </c>
       <c r="P169" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33575,7 +33596,7 @@
         <v>2.67</v>
       </c>
       <c r="AT169">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU169">
         <v>1.8</v>
@@ -33954,7 +33975,7 @@
         <v>0.88</v>
       </c>
       <c r="AS171">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT171">
         <v>1.08</v>
@@ -34145,7 +34166,7 @@
         <v>1.25</v>
       </c>
       <c r="AS172">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT172">
         <v>1.25</v>
@@ -34249,7 +34270,7 @@
         <v>84</v>
       </c>
       <c r="P173" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>5</v>
@@ -34631,7 +34652,7 @@
         <v>92</v>
       </c>
       <c r="P175" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q175">
         <v>4</v>
@@ -35100,7 +35121,7 @@
         <v>0.78</v>
       </c>
       <c r="AS177">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT177">
         <v>1.08</v>
@@ -35204,7 +35225,7 @@
         <v>84</v>
       </c>
       <c r="P178" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q178">
         <v>1</v>
@@ -35294,7 +35315,7 @@
         <v>1.45</v>
       </c>
       <c r="AT178">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU178">
         <v>1.57</v>
@@ -35395,7 +35416,7 @@
         <v>220</v>
       </c>
       <c r="P179" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -35586,7 +35607,7 @@
         <v>221</v>
       </c>
       <c r="P180" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35864,7 +35885,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS181">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT181">
         <v>0.5</v>
@@ -36055,7 +36076,7 @@
         <v>1.22</v>
       </c>
       <c r="AS182">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT182">
         <v>1.09</v>
@@ -36249,7 +36270,7 @@
         <v>1.82</v>
       </c>
       <c r="AT183">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU183">
         <v>1.94</v>
@@ -36350,7 +36371,7 @@
         <v>224</v>
       </c>
       <c r="P184" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36440,7 +36461,7 @@
         <v>1.36</v>
       </c>
       <c r="AT184">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU184">
         <v>2.14</v>
@@ -36631,7 +36652,7 @@
         <v>1.18</v>
       </c>
       <c r="AT185">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU185">
         <v>1.55</v>
@@ -36819,10 +36840,10 @@
         <v>0.44</v>
       </c>
       <c r="AS186">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT186">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU186">
         <v>1.61</v>
@@ -36923,7 +36944,7 @@
         <v>84</v>
       </c>
       <c r="P187" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37010,10 +37031,10 @@
         <v>1.33</v>
       </c>
       <c r="AS187">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT187">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU187">
         <v>1.87</v>
@@ -37114,7 +37135,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37201,7 +37222,7 @@
         <v>0.67</v>
       </c>
       <c r="AS188">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT188">
         <v>0.91</v>
@@ -37392,10 +37413,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS189">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT189">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU189">
         <v>1.87</v>
@@ -37583,10 +37604,10 @@
         <v>0.11</v>
       </c>
       <c r="AS190">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT190">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU190">
         <v>1.43</v>
@@ -37878,7 +37899,7 @@
         <v>228</v>
       </c>
       <c r="P192" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -38260,7 +38281,7 @@
         <v>229</v>
       </c>
       <c r="P194" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -38642,7 +38663,7 @@
         <v>84</v>
       </c>
       <c r="P196" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q196">
         <v>7</v>
@@ -38833,7 +38854,7 @@
         <v>230</v>
       </c>
       <c r="P197" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -38923,7 +38944,7 @@
         <v>1.73</v>
       </c>
       <c r="AT197">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU197">
         <v>1.99</v>
@@ -39024,7 +39045,7 @@
         <v>231</v>
       </c>
       <c r="P198" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q198">
         <v>6</v>
@@ -39111,7 +39132,7 @@
         <v>0.89</v>
       </c>
       <c r="AS198">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT198">
         <v>0.73</v>
@@ -39215,7 +39236,7 @@
         <v>232</v>
       </c>
       <c r="P199" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q199">
         <v>10</v>
@@ -39302,10 +39323,10 @@
         <v>0.5</v>
       </c>
       <c r="AS199">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT199">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU199">
         <v>1.57</v>
@@ -39493,10 +39514,10 @@
         <v>0.4</v>
       </c>
       <c r="AS200">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT200">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU200">
         <v>1.88</v>
@@ -39597,7 +39618,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q201">
         <v>6</v>
@@ -39788,7 +39809,7 @@
         <v>235</v>
       </c>
       <c r="P202" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -39875,10 +39896,10 @@
         <v>1.5</v>
       </c>
       <c r="AS202">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT202">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU202">
         <v>1.63</v>
@@ -40066,10 +40087,10 @@
         <v>0.4</v>
       </c>
       <c r="AS203">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT203">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU203">
         <v>1.67</v>
@@ -40257,10 +40278,10 @@
         <v>0.2</v>
       </c>
       <c r="AS204">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT204">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU204">
         <v>1.78</v>
@@ -40448,10 +40469,10 @@
         <v>1.8</v>
       </c>
       <c r="AS205">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT205">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU205">
         <v>1.42</v>
@@ -40639,7 +40660,7 @@
         <v>0.9</v>
       </c>
       <c r="AS206">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT206">
         <v>0.91</v>
@@ -40833,7 +40854,7 @@
         <v>1.18</v>
       </c>
       <c r="AT207">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU207">
         <v>1.47</v>
@@ -40934,7 +40955,7 @@
         <v>238</v>
       </c>
       <c r="P208" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -42271,7 +42292,7 @@
         <v>90</v>
       </c>
       <c r="P215" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q215">
         <v>8</v>
@@ -42604,6 +42625,1534 @@
       </c>
       <c r="BK216">
         <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>6818777</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45134.70833333334</v>
+      </c>
+      <c r="F217">
+        <v>6</v>
+      </c>
+      <c r="G217" t="s">
+        <v>70</v>
+      </c>
+      <c r="H217" t="s">
+        <v>76</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="L217">
+        <v>5</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>5</v>
+      </c>
+      <c r="O217" t="s">
+        <v>242</v>
+      </c>
+      <c r="P217" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q217">
+        <v>3</v>
+      </c>
+      <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
+        <v>5</v>
+      </c>
+      <c r="T217">
+        <v>1.58</v>
+      </c>
+      <c r="U217">
+        <v>2.7</v>
+      </c>
+      <c r="V217">
+        <v>9</v>
+      </c>
+      <c r="W217">
+        <v>1.25</v>
+      </c>
+      <c r="X217">
+        <v>3.5</v>
+      </c>
+      <c r="Y217">
+        <v>2.2</v>
+      </c>
+      <c r="Z217">
+        <v>1.58</v>
+      </c>
+      <c r="AA217">
+        <v>4.75</v>
+      </c>
+      <c r="AB217">
+        <v>1.15</v>
+      </c>
+      <c r="AC217">
+        <v>1.21</v>
+      </c>
+      <c r="AD217">
+        <v>7.35</v>
+      </c>
+      <c r="AE217">
+        <v>10.34</v>
+      </c>
+      <c r="AF217">
+        <v>1.02</v>
+      </c>
+      <c r="AG217">
+        <v>21</v>
+      </c>
+      <c r="AH217">
+        <v>1.15</v>
+      </c>
+      <c r="AI217">
+        <v>4.68</v>
+      </c>
+      <c r="AJ217">
+        <v>1.45</v>
+      </c>
+      <c r="AK217">
+        <v>2.55</v>
+      </c>
+      <c r="AL217">
+        <v>2.15</v>
+      </c>
+      <c r="AM217">
+        <v>1.62</v>
+      </c>
+      <c r="AN217">
+        <v>1.04</v>
+      </c>
+      <c r="AO217">
+        <v>1.07</v>
+      </c>
+      <c r="AP217">
+        <v>4.78</v>
+      </c>
+      <c r="AQ217">
+        <v>2.45</v>
+      </c>
+      <c r="AR217">
+        <v>0.18</v>
+      </c>
+      <c r="AS217">
+        <v>2.5</v>
+      </c>
+      <c r="AT217">
+        <v>0.17</v>
+      </c>
+      <c r="AU217">
+        <v>1.69</v>
+      </c>
+      <c r="AV217">
+        <v>1.39</v>
+      </c>
+      <c r="AW217">
+        <v>3.08</v>
+      </c>
+      <c r="AX217">
+        <v>1.07</v>
+      </c>
+      <c r="AY217">
+        <v>17.25</v>
+      </c>
+      <c r="AZ217">
+        <v>10.25</v>
+      </c>
+      <c r="BA217">
+        <v>0</v>
+      </c>
+      <c r="BB217">
+        <v>1.21</v>
+      </c>
+      <c r="BC217">
+        <v>1.36</v>
+      </c>
+      <c r="BD217">
+        <v>1.67</v>
+      </c>
+      <c r="BE217">
+        <v>2.03</v>
+      </c>
+      <c r="BF217">
+        <v>7</v>
+      </c>
+      <c r="BG217">
+        <v>7</v>
+      </c>
+      <c r="BH217">
+        <v>8</v>
+      </c>
+      <c r="BI217">
+        <v>4</v>
+      </c>
+      <c r="BJ217">
+        <v>15</v>
+      </c>
+      <c r="BK217">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>6818769</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45135.70833333334</v>
+      </c>
+      <c r="F218">
+        <v>6</v>
+      </c>
+      <c r="G218" t="s">
+        <v>65</v>
+      </c>
+      <c r="H218" t="s">
+        <v>75</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>3</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>3</v>
+      </c>
+      <c r="O218" t="s">
+        <v>243</v>
+      </c>
+      <c r="P218" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q218">
+        <v>6</v>
+      </c>
+      <c r="R218">
+        <v>0</v>
+      </c>
+      <c r="S218">
+        <v>6</v>
+      </c>
+      <c r="T218">
+        <v>1.62</v>
+      </c>
+      <c r="U218">
+        <v>2.6</v>
+      </c>
+      <c r="V218">
+        <v>8.5</v>
+      </c>
+      <c r="W218">
+        <v>1.29</v>
+      </c>
+      <c r="X218">
+        <v>3.25</v>
+      </c>
+      <c r="Y218">
+        <v>2.4</v>
+      </c>
+      <c r="Z218">
+        <v>1.53</v>
+      </c>
+      <c r="AA218">
+        <v>6</v>
+      </c>
+      <c r="AB218">
+        <v>1.11</v>
+      </c>
+      <c r="AC218">
+        <v>1.23</v>
+      </c>
+      <c r="AD218">
+        <v>4.77</v>
+      </c>
+      <c r="AE218">
+        <v>8.74</v>
+      </c>
+      <c r="AF218">
+        <v>1.01</v>
+      </c>
+      <c r="AG218">
+        <v>15</v>
+      </c>
+      <c r="AH218">
+        <v>1.17</v>
+      </c>
+      <c r="AI218">
+        <v>4.5</v>
+      </c>
+      <c r="AJ218">
+        <v>1.57</v>
+      </c>
+      <c r="AK218">
+        <v>2.25</v>
+      </c>
+      <c r="AL218">
+        <v>2.1</v>
+      </c>
+      <c r="AM218">
+        <v>1.7</v>
+      </c>
+      <c r="AN218">
+        <v>1.01</v>
+      </c>
+      <c r="AO218">
+        <v>1.11</v>
+      </c>
+      <c r="AP218">
+        <v>3.7</v>
+      </c>
+      <c r="AQ218">
+        <v>2.55</v>
+      </c>
+      <c r="AR218">
+        <v>0.36</v>
+      </c>
+      <c r="AS218">
+        <v>2.58</v>
+      </c>
+      <c r="AT218">
+        <v>0.33</v>
+      </c>
+      <c r="AU218">
+        <v>1.52</v>
+      </c>
+      <c r="AV218">
+        <v>0.79</v>
+      </c>
+      <c r="AW218">
+        <v>2.31</v>
+      </c>
+      <c r="AX218">
+        <v>1.23</v>
+      </c>
+      <c r="AY218">
+        <v>13</v>
+      </c>
+      <c r="AZ218">
+        <v>4.8</v>
+      </c>
+      <c r="BA218">
+        <v>1.19</v>
+      </c>
+      <c r="BB218">
+        <v>1.36</v>
+      </c>
+      <c r="BC218">
+        <v>1.61</v>
+      </c>
+      <c r="BD218">
+        <v>2</v>
+      </c>
+      <c r="BE218">
+        <v>2.55</v>
+      </c>
+      <c r="BF218">
+        <v>6</v>
+      </c>
+      <c r="BG218">
+        <v>0</v>
+      </c>
+      <c r="BH218">
+        <v>9</v>
+      </c>
+      <c r="BI218">
+        <v>0</v>
+      </c>
+      <c r="BJ218">
+        <v>15</v>
+      </c>
+      <c r="BK218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>6818773</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45136.71875</v>
+      </c>
+      <c r="F219">
+        <v>6</v>
+      </c>
+      <c r="G219" t="s">
+        <v>68</v>
+      </c>
+      <c r="H219" t="s">
+        <v>79</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+      <c r="N219">
+        <v>2</v>
+      </c>
+      <c r="O219" t="s">
+        <v>171</v>
+      </c>
+      <c r="P219" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q219">
+        <v>10</v>
+      </c>
+      <c r="R219">
+        <v>3</v>
+      </c>
+      <c r="S219">
+        <v>13</v>
+      </c>
+      <c r="T219">
+        <v>2.1</v>
+      </c>
+      <c r="U219">
+        <v>2.4</v>
+      </c>
+      <c r="V219">
+        <v>5.5</v>
+      </c>
+      <c r="W219">
+        <v>1.36</v>
+      </c>
+      <c r="X219">
+        <v>3.2</v>
+      </c>
+      <c r="Y219">
+        <v>2.55</v>
+      </c>
+      <c r="Z219">
+        <v>1.44</v>
+      </c>
+      <c r="AA219">
+        <v>6.5</v>
+      </c>
+      <c r="AB219">
+        <v>1.1</v>
+      </c>
+      <c r="AC219">
+        <v>1.47</v>
+      </c>
+      <c r="AD219">
+        <v>4.05</v>
+      </c>
+      <c r="AE219">
+        <v>5.2</v>
+      </c>
+      <c r="AF219">
+        <v>1.01</v>
+      </c>
+      <c r="AG219">
+        <v>10</v>
+      </c>
+      <c r="AH219">
+        <v>1.23</v>
+      </c>
+      <c r="AI219">
+        <v>3.64</v>
+      </c>
+      <c r="AJ219">
+        <v>1.71</v>
+      </c>
+      <c r="AK219">
+        <v>1.9</v>
+      </c>
+      <c r="AL219">
+        <v>1.87</v>
+      </c>
+      <c r="AM219">
+        <v>1.9</v>
+      </c>
+      <c r="AN219">
+        <v>1.12</v>
+      </c>
+      <c r="AO219">
+        <v>1.18</v>
+      </c>
+      <c r="AP219">
+        <v>2.5</v>
+      </c>
+      <c r="AQ219">
+        <v>1.64</v>
+      </c>
+      <c r="AR219">
+        <v>0.36</v>
+      </c>
+      <c r="AS219">
+        <v>1.58</v>
+      </c>
+      <c r="AT219">
+        <v>0.42</v>
+      </c>
+      <c r="AU219">
+        <v>1.59</v>
+      </c>
+      <c r="AV219">
+        <v>1.04</v>
+      </c>
+      <c r="AW219">
+        <v>2.63</v>
+      </c>
+      <c r="AX219">
+        <v>1.24</v>
+      </c>
+      <c r="AY219">
+        <v>13</v>
+      </c>
+      <c r="AZ219">
+        <v>4.6</v>
+      </c>
+      <c r="BA219">
+        <v>1.14</v>
+      </c>
+      <c r="BB219">
+        <v>1.28</v>
+      </c>
+      <c r="BC219">
+        <v>1.49</v>
+      </c>
+      <c r="BD219">
+        <v>1.8</v>
+      </c>
+      <c r="BE219">
+        <v>2.26</v>
+      </c>
+      <c r="BF219">
+        <v>6</v>
+      </c>
+      <c r="BG219">
+        <v>3</v>
+      </c>
+      <c r="BH219">
+        <v>8</v>
+      </c>
+      <c r="BI219">
+        <v>4</v>
+      </c>
+      <c r="BJ219">
+        <v>14</v>
+      </c>
+      <c r="BK219">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>6818776</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45136.9375</v>
+      </c>
+      <c r="F220">
+        <v>6</v>
+      </c>
+      <c r="G220" t="s">
+        <v>72</v>
+      </c>
+      <c r="H220" t="s">
+        <v>81</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220">
+        <v>2</v>
+      </c>
+      <c r="O220" t="s">
+        <v>244</v>
+      </c>
+      <c r="P220" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q220">
+        <v>1</v>
+      </c>
+      <c r="R220">
+        <v>8</v>
+      </c>
+      <c r="S220">
+        <v>9</v>
+      </c>
+      <c r="T220">
+        <v>3.5</v>
+      </c>
+      <c r="U220">
+        <v>2.04</v>
+      </c>
+      <c r="V220">
+        <v>3.15</v>
+      </c>
+      <c r="W220">
+        <v>1.39</v>
+      </c>
+      <c r="X220">
+        <v>2.75</v>
+      </c>
+      <c r="Y220">
+        <v>2.7</v>
+      </c>
+      <c r="Z220">
+        <v>1.41</v>
+      </c>
+      <c r="AA220">
+        <v>6.75</v>
+      </c>
+      <c r="AB220">
+        <v>1.09</v>
+      </c>
+      <c r="AC220">
+        <v>3.3</v>
+      </c>
+      <c r="AD220">
+        <v>3.1</v>
+      </c>
+      <c r="AE220">
+        <v>2.15</v>
+      </c>
+      <c r="AF220">
+        <v>1.06</v>
+      </c>
+      <c r="AG220">
+        <v>11</v>
+      </c>
+      <c r="AH220">
+        <v>1.3</v>
+      </c>
+      <c r="AI220">
+        <v>3.5</v>
+      </c>
+      <c r="AJ220">
+        <v>1.93</v>
+      </c>
+      <c r="AK220">
+        <v>1.83</v>
+      </c>
+      <c r="AL220">
+        <v>1.7</v>
+      </c>
+      <c r="AM220">
+        <v>2.1</v>
+      </c>
+      <c r="AN220">
+        <v>1.47</v>
+      </c>
+      <c r="AO220">
+        <v>1.32</v>
+      </c>
+      <c r="AP220">
+        <v>1.39</v>
+      </c>
+      <c r="AQ220">
+        <v>2.09</v>
+      </c>
+      <c r="AR220">
+        <v>1.64</v>
+      </c>
+      <c r="AS220">
+        <v>2</v>
+      </c>
+      <c r="AT220">
+        <v>1.58</v>
+      </c>
+      <c r="AU220">
+        <v>1.62</v>
+      </c>
+      <c r="AV220">
+        <v>1.07</v>
+      </c>
+      <c r="AW220">
+        <v>2.69</v>
+      </c>
+      <c r="AX220">
+        <v>2.02</v>
+      </c>
+      <c r="AY220">
+        <v>7.3</v>
+      </c>
+      <c r="AZ220">
+        <v>2.14</v>
+      </c>
+      <c r="BA220">
+        <v>1.24</v>
+      </c>
+      <c r="BB220">
+        <v>1.44</v>
+      </c>
+      <c r="BC220">
+        <v>1.73</v>
+      </c>
+      <c r="BD220">
+        <v>2.18</v>
+      </c>
+      <c r="BE220">
+        <v>2.85</v>
+      </c>
+      <c r="BF220">
+        <v>2</v>
+      </c>
+      <c r="BG220">
+        <v>5</v>
+      </c>
+      <c r="BH220">
+        <v>4</v>
+      </c>
+      <c r="BI220">
+        <v>3</v>
+      </c>
+      <c r="BJ220">
+        <v>6</v>
+      </c>
+      <c r="BK220">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>6818770</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45137.625</v>
+      </c>
+      <c r="F221">
+        <v>6</v>
+      </c>
+      <c r="G221" t="s">
+        <v>66</v>
+      </c>
+      <c r="H221" t="s">
+        <v>69</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>2</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>2</v>
+      </c>
+      <c r="O221" t="s">
+        <v>245</v>
+      </c>
+      <c r="P221" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q221">
+        <v>6</v>
+      </c>
+      <c r="R221">
+        <v>2</v>
+      </c>
+      <c r="S221">
+        <v>8</v>
+      </c>
+      <c r="T221">
+        <v>2.25</v>
+      </c>
+      <c r="U221">
+        <v>2.15</v>
+      </c>
+      <c r="V221">
+        <v>5.25</v>
+      </c>
+      <c r="W221">
+        <v>1.42</v>
+      </c>
+      <c r="X221">
+        <v>2.7</v>
+      </c>
+      <c r="Y221">
+        <v>2.85</v>
+      </c>
+      <c r="Z221">
+        <v>1.42</v>
+      </c>
+      <c r="AA221">
+        <v>6.75</v>
+      </c>
+      <c r="AB221">
+        <v>1.09</v>
+      </c>
+      <c r="AC221">
+        <v>1.82</v>
+      </c>
+      <c r="AD221">
+        <v>3.14</v>
+      </c>
+      <c r="AE221">
+        <v>3.43</v>
+      </c>
+      <c r="AF221">
+        <v>1.04</v>
+      </c>
+      <c r="AG221">
+        <v>10.75</v>
+      </c>
+      <c r="AH221">
+        <v>1.31</v>
+      </c>
+      <c r="AI221">
+        <v>3.17</v>
+      </c>
+      <c r="AJ221">
+        <v>2.03</v>
+      </c>
+      <c r="AK221">
+        <v>1.83</v>
+      </c>
+      <c r="AL221">
+        <v>1.95</v>
+      </c>
+      <c r="AM221">
+        <v>1.78</v>
+      </c>
+      <c r="AN221">
+        <v>1.16</v>
+      </c>
+      <c r="AO221">
+        <v>1.23</v>
+      </c>
+      <c r="AP221">
+        <v>2.1</v>
+      </c>
+      <c r="AQ221">
+        <v>1.91</v>
+      </c>
+      <c r="AR221">
+        <v>1.55</v>
+      </c>
+      <c r="AS221">
+        <v>1.83</v>
+      </c>
+      <c r="AT221">
+        <v>1.5</v>
+      </c>
+      <c r="AU221">
+        <v>1.76</v>
+      </c>
+      <c r="AV221">
+        <v>1.51</v>
+      </c>
+      <c r="AW221">
+        <v>3.27</v>
+      </c>
+      <c r="AX221">
+        <v>1.5</v>
+      </c>
+      <c r="AY221">
+        <v>8.5</v>
+      </c>
+      <c r="AZ221">
+        <v>3.1</v>
+      </c>
+      <c r="BA221">
+        <v>1.25</v>
+      </c>
+      <c r="BB221">
+        <v>1.42</v>
+      </c>
+      <c r="BC221">
+        <v>1.75</v>
+      </c>
+      <c r="BD221">
+        <v>2.25</v>
+      </c>
+      <c r="BE221">
+        <v>3</v>
+      </c>
+      <c r="BF221">
+        <v>3</v>
+      </c>
+      <c r="BG221">
+        <v>4</v>
+      </c>
+      <c r="BH221">
+        <v>12</v>
+      </c>
+      <c r="BI221">
+        <v>3</v>
+      </c>
+      <c r="BJ221">
+        <v>15</v>
+      </c>
+      <c r="BK221">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>6818772</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45138.625</v>
+      </c>
+      <c r="F222">
+        <v>6</v>
+      </c>
+      <c r="G222" t="s">
+        <v>71</v>
+      </c>
+      <c r="H222" t="s">
+        <v>82</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>2</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>2</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="O222" t="s">
+        <v>84</v>
+      </c>
+      <c r="P222" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q222">
+        <v>2</v>
+      </c>
+      <c r="R222">
+        <v>3</v>
+      </c>
+      <c r="S222">
+        <v>5</v>
+      </c>
+      <c r="T222">
+        <v>4.3</v>
+      </c>
+      <c r="U222">
+        <v>2.06</v>
+      </c>
+      <c r="V222">
+        <v>2.67</v>
+      </c>
+      <c r="W222">
+        <v>1.42</v>
+      </c>
+      <c r="X222">
+        <v>2.9</v>
+      </c>
+      <c r="Y222">
+        <v>2.95</v>
+      </c>
+      <c r="Z222">
+        <v>1.38</v>
+      </c>
+      <c r="AA222">
+        <v>7.5</v>
+      </c>
+      <c r="AB222">
+        <v>1.08</v>
+      </c>
+      <c r="AC222">
+        <v>3.3</v>
+      </c>
+      <c r="AD222">
+        <v>3.3</v>
+      </c>
+      <c r="AE222">
+        <v>2</v>
+      </c>
+      <c r="AF222">
+        <v>1.05</v>
+      </c>
+      <c r="AG222">
+        <v>11</v>
+      </c>
+      <c r="AH222">
+        <v>1.33</v>
+      </c>
+      <c r="AI222">
+        <v>3.3</v>
+      </c>
+      <c r="AJ222">
+        <v>1.98</v>
+      </c>
+      <c r="AK222">
+        <v>1.88</v>
+      </c>
+      <c r="AL222">
+        <v>1.83</v>
+      </c>
+      <c r="AM222">
+        <v>1.93</v>
+      </c>
+      <c r="AN222">
+        <v>1.71</v>
+      </c>
+      <c r="AO222">
+        <v>1.29</v>
+      </c>
+      <c r="AP222">
+        <v>1.25</v>
+      </c>
+      <c r="AQ222">
+        <v>1.45</v>
+      </c>
+      <c r="AR222">
+        <v>1.09</v>
+      </c>
+      <c r="AS222">
+        <v>1.33</v>
+      </c>
+      <c r="AT222">
+        <v>1.25</v>
+      </c>
+      <c r="AU222">
+        <v>1.42</v>
+      </c>
+      <c r="AV222">
+        <v>1.41</v>
+      </c>
+      <c r="AW222">
+        <v>2.83</v>
+      </c>
+      <c r="AX222">
+        <v>0</v>
+      </c>
+      <c r="AY222">
+        <v>0</v>
+      </c>
+      <c r="AZ222">
+        <v>0</v>
+      </c>
+      <c r="BA222">
+        <v>0</v>
+      </c>
+      <c r="BB222">
+        <v>0</v>
+      </c>
+      <c r="BC222">
+        <v>2</v>
+      </c>
+      <c r="BD222">
+        <v>1.74</v>
+      </c>
+      <c r="BE222">
+        <v>0</v>
+      </c>
+      <c r="BF222">
+        <v>3</v>
+      </c>
+      <c r="BG222">
+        <v>7</v>
+      </c>
+      <c r="BH222">
+        <v>2</v>
+      </c>
+      <c r="BI222">
+        <v>6</v>
+      </c>
+      <c r="BJ222">
+        <v>5</v>
+      </c>
+      <c r="BK222">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>6818771</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45138.71875</v>
+      </c>
+      <c r="F223">
+        <v>6</v>
+      </c>
+      <c r="G223" t="s">
+        <v>83</v>
+      </c>
+      <c r="H223" t="s">
+        <v>78</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>2</v>
+      </c>
+      <c r="L223">
+        <v>2</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>2</v>
+      </c>
+      <c r="O223" t="s">
+        <v>246</v>
+      </c>
+      <c r="P223" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q223">
+        <v>2</v>
+      </c>
+      <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
+        <v>4</v>
+      </c>
+      <c r="T223">
+        <v>1.83</v>
+      </c>
+      <c r="U223">
+        <v>2.48</v>
+      </c>
+      <c r="V223">
+        <v>6.95</v>
+      </c>
+      <c r="W223">
+        <v>1.33</v>
+      </c>
+      <c r="X223">
+        <v>3.3</v>
+      </c>
+      <c r="Y223">
+        <v>2.55</v>
+      </c>
+      <c r="Z223">
+        <v>1.5</v>
+      </c>
+      <c r="AA223">
+        <v>6</v>
+      </c>
+      <c r="AB223">
+        <v>1.11</v>
+      </c>
+      <c r="AC223">
+        <v>1.32</v>
+      </c>
+      <c r="AD223">
+        <v>4.6</v>
+      </c>
+      <c r="AE223">
+        <v>5.4</v>
+      </c>
+      <c r="AF223">
+        <v>1.02</v>
+      </c>
+      <c r="AG223">
+        <v>15</v>
+      </c>
+      <c r="AH223">
+        <v>1.22</v>
+      </c>
+      <c r="AI223">
+        <v>4.2</v>
+      </c>
+      <c r="AJ223">
+        <v>1.65</v>
+      </c>
+      <c r="AK223">
+        <v>2.1</v>
+      </c>
+      <c r="AL223">
+        <v>2</v>
+      </c>
+      <c r="AM223">
+        <v>1.78</v>
+      </c>
+      <c r="AN223">
+        <v>1.05</v>
+      </c>
+      <c r="AO223">
+        <v>1.15</v>
+      </c>
+      <c r="AP223">
+        <v>3</v>
+      </c>
+      <c r="AQ223">
+        <v>2</v>
+      </c>
+      <c r="AR223">
+        <v>0.55</v>
+      </c>
+      <c r="AS223">
+        <v>2.08</v>
+      </c>
+      <c r="AT223">
+        <v>0.5</v>
+      </c>
+      <c r="AU223">
+        <v>1.98</v>
+      </c>
+      <c r="AV223">
+        <v>1.32</v>
+      </c>
+      <c r="AW223">
+        <v>3.3</v>
+      </c>
+      <c r="AX223">
+        <v>1.14</v>
+      </c>
+      <c r="AY223">
+        <v>12</v>
+      </c>
+      <c r="AZ223">
+        <v>6.5</v>
+      </c>
+      <c r="BA223">
+        <v>1.18</v>
+      </c>
+      <c r="BB223">
+        <v>1.29</v>
+      </c>
+      <c r="BC223">
+        <v>1.55</v>
+      </c>
+      <c r="BD223">
+        <v>1.94</v>
+      </c>
+      <c r="BE223">
+        <v>2.47</v>
+      </c>
+      <c r="BF223">
+        <v>6</v>
+      </c>
+      <c r="BG223">
+        <v>4</v>
+      </c>
+      <c r="BH223">
+        <v>3</v>
+      </c>
+      <c r="BI223">
+        <v>3</v>
+      </c>
+      <c r="BJ223">
+        <v>9</v>
+      </c>
+      <c r="BK223">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>6818768</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45138.9375</v>
+      </c>
+      <c r="F224">
+        <v>6</v>
+      </c>
+      <c r="G224" t="s">
+        <v>67</v>
+      </c>
+      <c r="H224" t="s">
+        <v>80</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>2</v>
+      </c>
+      <c r="L224">
+        <v>3</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>3</v>
+      </c>
+      <c r="O224" t="s">
+        <v>247</v>
+      </c>
+      <c r="P224" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q224">
+        <v>10</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>10</v>
+      </c>
+      <c r="T224">
+        <v>1.7</v>
+      </c>
+      <c r="U224">
+        <v>2.65</v>
+      </c>
+      <c r="V224">
+        <v>9</v>
+      </c>
+      <c r="W224">
+        <v>1.3</v>
+      </c>
+      <c r="X224">
+        <v>3.4</v>
+      </c>
+      <c r="Y224">
+        <v>2.45</v>
+      </c>
+      <c r="Z224">
+        <v>1.52</v>
+      </c>
+      <c r="AA224">
+        <v>5.5</v>
+      </c>
+      <c r="AB224">
+        <v>1.12</v>
+      </c>
+      <c r="AC224">
+        <v>1.23</v>
+      </c>
+      <c r="AD224">
+        <v>5.56</v>
+      </c>
+      <c r="AE224">
+        <v>9.44</v>
+      </c>
+      <c r="AF224">
+        <v>1.02</v>
+      </c>
+      <c r="AG224">
+        <v>15</v>
+      </c>
+      <c r="AH224">
+        <v>1.2</v>
+      </c>
+      <c r="AI224">
+        <v>4.33</v>
+      </c>
+      <c r="AJ224">
+        <v>1.65</v>
+      </c>
+      <c r="AK224">
+        <v>2.1</v>
+      </c>
+      <c r="AL224">
+        <v>2.25</v>
+      </c>
+      <c r="AM224">
+        <v>1.62</v>
+      </c>
+      <c r="AN224">
+        <v>1.02</v>
+      </c>
+      <c r="AO224">
+        <v>1.1</v>
+      </c>
+      <c r="AP224">
+        <v>4</v>
+      </c>
+      <c r="AQ224">
+        <v>2.73</v>
+      </c>
+      <c r="AR224">
+        <v>1.36</v>
+      </c>
+      <c r="AS224">
+        <v>2.75</v>
+      </c>
+      <c r="AT224">
+        <v>1.25</v>
+      </c>
+      <c r="AU224">
+        <v>1.88</v>
+      </c>
+      <c r="AV224">
+        <v>1.12</v>
+      </c>
+      <c r="AW224">
+        <v>3</v>
+      </c>
+      <c r="AX224">
+        <v>1.07</v>
+      </c>
+      <c r="AY224">
+        <v>13</v>
+      </c>
+      <c r="AZ224">
+        <v>9</v>
+      </c>
+      <c r="BA224">
+        <v>1.24</v>
+      </c>
+      <c r="BB224">
+        <v>1.37</v>
+      </c>
+      <c r="BC224">
+        <v>1.73</v>
+      </c>
+      <c r="BD224">
+        <v>2.17</v>
+      </c>
+      <c r="BE224">
+        <v>2.85</v>
+      </c>
+      <c r="BF224">
+        <v>11</v>
+      </c>
+      <c r="BG224">
+        <v>4</v>
+      </c>
+      <c r="BH224">
+        <v>11</v>
+      </c>
+      <c r="BI224">
+        <v>2</v>
+      </c>
+      <c r="BJ224">
+        <v>22</v>
+      </c>
+      <c r="BK224">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
